--- a/data/dataset_guangda_fei.xlsx
+++ b/data/dataset_guangda_fei.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guangdafei/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guangdafei/PycharmProjects/SPY20250409/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E458279A-834F-2D49-B5F0-C59DCE57C940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C32BC50-2FE2-2B49-9535-4178B74069D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="1" activeTab="1" xr2:uid="{2A1B1CDB-8C23-4D8A-9798-41201020C594}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19500" firstSheet="1" activeTab="2" xr2:uid="{2A1B1CDB-8C23-4D8A-9798-41201020C594}"/>
   </bookViews>
   <sheets>
     <sheet name="Index Data" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Option Chain'!$A$1:$B$2459</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">IV!$D$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">IV!$D$2:$D$576</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">IV!$D$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">IV!$D$2:$D$570</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">IV!$D$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">IV!$D$2:$D$576</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">IV!$F$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">IV!$F$2:$F$570</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">IV!$E$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">IV!$E$2:$E$570</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="2465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="2466">
   <si>
     <t>SPY Closing Price</t>
   </si>
@@ -7436,6 +7446,9 @@
   </si>
   <si>
     <t>Closing Price as of 4/9/2025</t>
+  </si>
+  <si>
+    <t>vol_diff</t>
   </si>
 </sst>
 </file>
@@ -15811,8 +15824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636D945F-4B9C-4D45-B703-16F21FD0B1C9}">
   <dimension ref="A1:B2459"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A340" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="E343" sqref="E343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35498,10 +35511,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECA7B97-6D42-48D3-87BD-34ECFA59A749}">
-  <dimension ref="A1:E576"/>
+  <dimension ref="A1:F570"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A559" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="D570" sqref="D570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35512,7 +35525,7 @@
     <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2463</v>
       </c>
@@ -35525,8 +35538,11 @@
       <c r="E1" t="s">
         <v>2462</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44929</v>
       </c>
@@ -35542,8 +35558,12 @@
       <c r="E2">
         <v>19.5396</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>D2-E2</f>
+        <v>4.8531000000000013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44930</v>
       </c>
@@ -35559,8 +35579,12 @@
       <c r="E3">
         <v>18.7624</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">D3-E3</f>
+        <v>4.5411999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44931</v>
       </c>
@@ -35576,8 +35600,12 @@
       <c r="E4">
         <v>19.265699999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4.3738000000000028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44932</v>
       </c>
@@ -35593,8 +35621,12 @@
       <c r="E5">
         <v>17.6294</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4.8757999999999981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44935</v>
       </c>
@@ -35610,8 +35642,12 @@
       <c r="E6">
         <v>18.4528</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4.7859000000000016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44936</v>
       </c>
@@ -35627,8 +35663,12 @@
       <c r="E7">
         <v>17.2102</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>4.7309999999999981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44937</v>
       </c>
@@ -35644,8 +35684,12 @@
       <c r="E8">
         <v>17.8215</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>4.7469000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44938</v>
       </c>
@@ -35661,8 +35705,12 @@
       <c r="E9">
         <v>15.823600000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.5474999999999977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44939</v>
       </c>
@@ -35678,8 +35726,12 @@
       <c r="E10">
         <v>14.732100000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>5.5418000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44943</v>
       </c>
@@ -35695,8 +35747,12 @@
       <c r="E11">
         <v>15.5214</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>5.5663000000000018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44944</v>
       </c>
@@ -35712,8 +35768,12 @@
       <c r="E12">
         <v>16.286899999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>5.5479000000000021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44945</v>
       </c>
@@ -35729,8 +35789,12 @@
       <c r="E13">
         <v>16.179600000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>5.9360999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44946</v>
       </c>
@@ -35746,8 +35810,12 @@
       <c r="E14">
         <v>15.280900000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>6.3314000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44949</v>
       </c>
@@ -35763,8 +35831,12 @@
       <c r="E15">
         <v>15.296900000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>6.2030999999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44950</v>
       </c>
@@ -35780,8 +35852,12 @@
       <c r="E16">
         <v>15.558199999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>4.8599999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44951</v>
       </c>
@@ -35797,8 +35873,12 @@
       <c r="E17">
         <v>14.7156</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>6.1869999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44952</v>
       </c>
@@ -35814,8 +35894,12 @@
       <c r="E18">
         <v>14.2928</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>6.3941000000000017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44953</v>
       </c>
@@ -35831,8 +35915,12 @@
       <c r="E19">
         <v>14.097899999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>6.2672000000000025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44956</v>
       </c>
@@ -35848,8 +35936,12 @@
       <c r="E20">
         <v>16.002099999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>5.4108000000000018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44957</v>
       </c>
@@ -35865,8 +35957,12 @@
       <c r="E21">
         <v>14.4168</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>7.2580000000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44958</v>
       </c>
@@ -35882,8 +35978,12 @@
       <c r="E22">
         <v>14.148400000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>5.426499999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44959</v>
       </c>
@@ -35899,8 +35999,12 @@
       <c r="E23">
         <v>13.3043</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>7.8116000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44960</v>
       </c>
@@ -35916,8 +36020,12 @@
       <c r="E24">
         <v>14.1273</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>6.1516999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44963</v>
       </c>
@@ -35933,8 +36041,12 @@
       <c r="E25">
         <v>15.108700000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>6.0570000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44964</v>
       </c>
@@ -35950,8 +36062,12 @@
       <c r="E26">
         <v>13.902900000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>6.9395000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44965</v>
       </c>
@@ -35967,8 +36083,12 @@
       <c r="E27">
         <v>15.0037</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>6.5111000000000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44966</v>
       </c>
@@ -35984,8 +36104,12 @@
       <c r="E28">
         <v>15.849</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>6.7333999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44967</v>
       </c>
@@ -36001,8 +36125,12 @@
       <c r="E29">
         <v>15.596</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>6.7276999999999987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44970</v>
       </c>
@@ -36018,8 +36146,12 @@
       <c r="E30">
         <v>15.6912</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>6.3853999999999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44971</v>
       </c>
@@ -36035,8 +36167,12 @@
       <c r="E31">
         <v>14.0976</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>7.0008000000000017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44972</v>
       </c>
@@ -36052,8 +36188,12 @@
       <c r="E32">
         <v>13.763</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>6.427999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44973</v>
       </c>
@@ -36069,8 +36209,12 @@
       <c r="E33">
         <v>14.474500000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>7.6507999999999985</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44974</v>
       </c>
@@ -36086,8 +36230,12 @@
       <c r="E34">
         <v>14.1714</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>7.6280999999999981</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44978</v>
       </c>
@@ -36103,8 +36251,12 @@
       <c r="E35">
         <v>17.094100000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>7.1067</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44979</v>
       </c>
@@ -36120,8 +36272,12 @@
       <c r="E36">
         <v>16.420999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>7.3932000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44980</v>
       </c>
@@ -36137,8 +36293,12 @@
       <c r="E37">
         <v>15.526999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>7.6115000000000013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44981</v>
       </c>
@@ -36154,8 +36314,12 @@
       <c r="E38">
         <v>16.500699999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>7.0432000000000023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44984</v>
       </c>
@@ -36171,8 +36335,12 @@
       <c r="E39">
         <v>16.331499999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>6.3935000000000031</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44985</v>
       </c>
@@ -36188,8 +36356,12 @@
       <c r="E40">
         <v>15.7789</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>7.0077999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44986</v>
       </c>
@@ -36205,8 +36377,12 @@
       <c r="E41">
         <v>16.295200000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>5.8745999999999974</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44987</v>
       </c>
@@ -36222,8 +36398,12 @@
       <c r="E42">
         <v>15.3841</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>5.9726999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44988</v>
       </c>
@@ -36239,8 +36419,12 @@
       <c r="E43">
         <v>14.6744</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>5.490499999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44991</v>
       </c>
@@ -36256,8 +36440,12 @@
       <c r="E44">
         <v>14.915800000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>5.2962999999999987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44992</v>
       </c>
@@ -36273,8 +36461,12 @@
       <c r="E45">
         <v>15.6982</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44993</v>
       </c>
@@ -36290,8 +36482,12 @@
       <c r="E46">
         <v>15.3302</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>5.3907000000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44994</v>
       </c>
@@ -36307,8 +36503,12 @@
       <c r="E47">
         <v>17.354199999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>6.7579000000000029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44995</v>
       </c>
@@ -36324,8 +36524,12 @@
       <c r="E48">
         <v>18.203900000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>7.3705999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44998</v>
       </c>
@@ -36341,8 +36545,12 @@
       <c r="E49">
         <v>20.387599999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>6.4697999999999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44999</v>
       </c>
@@ -36358,8 +36566,12 @@
       <c r="E50">
         <v>16.897099999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>7.8604000000000021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>45000</v>
       </c>
@@ -36375,8 +36587,12 @@
       <c r="E51">
         <v>17.801300000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>9.2200999999999986</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>45001</v>
       </c>
@@ -36392,8 +36608,12 @@
       <c r="E52">
         <v>16.22</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>7.8084000000000024</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>45002</v>
       </c>
@@ -36409,8 +36629,12 @@
       <c r="E53">
         <v>18.498100000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>8.1828000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>45005</v>
       </c>
@@ -36426,8 +36650,12 @@
       <c r="E54">
         <v>17.2363</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>8.6880999999999986</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>45006</v>
       </c>
@@ -36443,8 +36671,12 @@
       <c r="E55">
         <v>15.947800000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>7.4187999999999974</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>45007</v>
       </c>
@@ -36460,8 +36692,12 @@
       <c r="E56">
         <v>16.939</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>7.2726000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>45008</v>
       </c>
@@ -36477,8 +36713,12 @@
       <c r="E57">
         <v>16.333600000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>8.5510999999999981</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>45009</v>
       </c>
@@ -36494,8 +36734,12 @@
       <c r="E58">
         <v>15.810499999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>8.1255000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>45012</v>
       </c>
@@ -36511,8 +36755,12 @@
       <c r="E59">
         <v>15.1731</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>7.4818000000000016</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>45013</v>
       </c>
@@ -36528,8 +36776,12 @@
       <c r="E60">
         <v>15.230399999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>6.5212000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>45014</v>
       </c>
@@ -36545,8 +36797,12 @@
       <c r="E61">
         <v>14.2973</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>7.1553000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>45015</v>
       </c>
@@ -36562,8 +36818,12 @@
       <c r="E62">
         <v>13.983599999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>7.301400000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>45016</v>
       </c>
@@ -36579,8 +36839,12 @@
       <c r="E63">
         <v>13.8148</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>7.0423999999999989</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>45019</v>
       </c>
@@ -36596,8 +36860,12 @@
       <c r="E64">
         <v>14.0741</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>6.5206999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>45020</v>
       </c>
@@ -36613,8 +36881,12 @@
       <c r="E65">
         <v>14.2249</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>6.8328000000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>45021</v>
       </c>
@@ -36630,8 +36902,12 @@
       <c r="E66">
         <v>14.105600000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>7.2186000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>45022</v>
       </c>
@@ -36647,8 +36923,12 @@
       <c r="E67">
         <v>13.498799999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="1">D67-E67</f>
+        <v>7.2803000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>45026</v>
       </c>
@@ -36664,8 +36944,12 @@
       <c r="E68">
         <v>14.1233</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>6.9316999999999993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>45027</v>
       </c>
@@ -36681,8 +36965,12 @@
       <c r="E69">
         <v>14.1282</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>7.0475999999999992</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>45028</v>
       </c>
@@ -36698,8 +36986,12 @@
       <c r="E70">
         <v>13.505599999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>7.8588000000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>45029</v>
       </c>
@@ -36715,8 +37007,12 @@
       <c r="E71">
         <v>12.861000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>7.1317999999999984</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>45030</v>
       </c>
@@ -36732,8 +37028,12 @@
       <c r="E72">
         <v>12.523099999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>6.6145999999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>45033</v>
       </c>
@@ -36749,8 +37049,12 @@
       <c r="E73">
         <v>12.321199999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>6.7067999999999994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>45034</v>
       </c>
@@ -36766,8 +37070,12 @@
       <c r="E74">
         <v>11.6585</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>7.6629000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>45035</v>
       </c>
@@ -36783,8 +37091,12 @@
       <c r="E75">
         <v>11.118499999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>8.2492999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>45036</v>
       </c>
@@ -36800,8 +37112,12 @@
       <c r="E76">
         <v>11.302099999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>8.6050000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>45037</v>
       </c>
@@ -36817,8 +37133,12 @@
       <c r="E77">
         <v>10.8849</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>8.7692999999999994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>45040</v>
       </c>
@@ -36834,8 +37154,12 @@
       <c r="E78">
         <v>10.9468</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>8.8239000000000019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>45041</v>
       </c>
@@ -36851,8 +37175,12 @@
       <c r="E79">
         <v>13.010400000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>7.9024000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>45042</v>
       </c>
@@ -36868,8 +37196,12 @@
       <c r="E80">
         <v>12.454700000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>8.7992000000000008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>45043</v>
       </c>
@@ -36885,8 +37217,12 @@
       <c r="E81">
         <v>11.2578</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>8.1937999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>45044</v>
       </c>
@@ -36902,8 +37238,12 @@
       <c r="E82">
         <v>10.5329</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>7.9060000000000006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>45047</v>
       </c>
@@ -36919,8 +37259,12 @@
       <c r="E83">
         <v>10.645300000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>8.1927000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>45048</v>
       </c>
@@ -36936,8 +37280,12 @@
       <c r="E84">
         <v>11.281599999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>9.3895999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>45049</v>
       </c>
@@ -36953,8 +37301,12 @@
       <c r="E85">
         <v>12.2804</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>8.5821000000000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>45050</v>
       </c>
@@ -36970,8 +37322,12 @@
       <c r="E86">
         <v>12.5626</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>10.268799999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>45051</v>
       </c>
@@ -36987,8 +37343,12 @@
       <c r="E87">
         <v>10.5893</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>9.7876999999999992</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>45054</v>
       </c>
@@ -37004,8 +37364,12 @@
       <c r="E88">
         <v>10.546900000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>9.6711999999999989</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>45055</v>
       </c>
@@ -37021,8 +37385,12 @@
       <c r="E89">
         <v>11.196199999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>9.3743999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>45056</v>
       </c>
@@ -37038,8 +37406,12 @@
       <c r="E90">
         <v>10.765599999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>9.1154000000000011</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>45057</v>
       </c>
@@ -37055,8 +37427,12 @@
       <c r="E91">
         <v>10.536799999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>9.4457000000000022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>45058</v>
       </c>
@@ -37072,8 +37448,12 @@
       <c r="E92">
         <v>10.254</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>9.7575000000000021</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>45061</v>
       </c>
@@ -37089,8 +37469,12 @@
       <c r="E93">
         <v>10.418100000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>9.507299999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>45062</v>
       </c>
@@ -37106,8 +37490,12 @@
       <c r="E94">
         <v>11.2531</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>9.2752000000000017</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>45063</v>
       </c>
@@ -37123,8 +37511,12 @@
       <c r="E95">
         <v>10.7606</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>8.7449000000000012</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>45064</v>
       </c>
@@ -37140,8 +37532,12 @@
       <c r="E96">
         <v>10.7173</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>7.799100000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>45065</v>
       </c>
@@ -37157,8 +37553,12 @@
       <c r="E97">
         <v>10.9575</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>8.3981999999999992</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>45068</v>
       </c>
@@ -37174,8 +37574,12 @@
       <c r="E98">
         <v>11.046900000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>8.5672999999999995</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>45069</v>
       </c>
@@ -37191,8 +37595,12 @@
       <c r="E99">
         <v>11.313700000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>9.4315999999999995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>45070</v>
       </c>
@@ -37208,8 +37616,12 @@
       <c r="E100">
         <v>11.9689</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>10.2279</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>45071</v>
       </c>
@@ -37225,8 +37637,12 @@
       <c r="E101">
         <v>11.2561</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>9.8881000000000014</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>45072</v>
       </c>
@@ -37242,8 +37658,12 @@
       <c r="E102">
         <v>11.2723</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>8.5290000000000017</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>45076</v>
       </c>
@@ -37259,8 +37679,12 @@
       <c r="E103">
         <v>11.131399999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>8.4894999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>45077</v>
       </c>
@@ -37276,8 +37700,12 @@
       <c r="E104">
         <v>10.5358</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>9.6056000000000008</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>45078</v>
       </c>
@@ -37293,8 +37721,12 @@
       <c r="E105">
         <v>10.3546</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>7.475500000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>45079</v>
       </c>
@@ -37310,8 +37742,12 @@
       <c r="E106">
         <v>10.909800000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>5.7196999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>45082</v>
       </c>
@@ -37327,8 +37763,12 @@
       <c r="E107">
         <v>10.843999999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>6.0709</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>45083</v>
       </c>
@@ -37344,8 +37784,12 @@
       <c r="E108">
         <v>10.3292</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>5.8920999999999992</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>45084</v>
       </c>
@@ -37361,8 +37805,12 @@
       <c r="E109">
         <v>9.9553999999999991</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>6.2884000000000011</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>45085</v>
       </c>
@@ -37378,8 +37826,12 @@
       <c r="E110">
         <v>9.5205000000000002</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>6.4214000000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>45086</v>
       </c>
@@ -37395,8 +37847,12 @@
       <c r="E111">
         <v>9.6219999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>6.3314000000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>45089</v>
       </c>
@@ -37412,8 +37868,12 @@
       <c r="E112">
         <v>10.4594</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>6.3361000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>45090</v>
       </c>
@@ -37429,8 +37889,12 @@
       <c r="E113">
         <v>10.6724</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>5.589100000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>45091</v>
       </c>
@@ -37446,8 +37910,12 @@
       <c r="E114">
         <v>10.4207</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>5.1280999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>45092</v>
       </c>
@@ -37463,8 +37931,12 @@
       <c r="E115">
         <v>10.8599</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>5.2038000000000011</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>45093</v>
       </c>
@@ -37480,8 +37952,12 @@
       <c r="E116">
         <v>10.6227</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>4.8506999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>45097</v>
       </c>
@@ -37497,8 +37973,12 @@
       <c r="E117">
         <v>10.5067</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>5.6559000000000008</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>45098</v>
       </c>
@@ -37514,8 +37994,12 @@
       <c r="E118">
         <v>9.8877000000000006</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>6.059099999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>45099</v>
       </c>
@@ -37531,8 +38015,12 @@
       <c r="E119">
         <v>9.5981000000000005</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>6.1084999999999994</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>45100</v>
       </c>
@@ -37548,8 +38036,12 @@
       <c r="E120">
         <v>9.4898000000000007</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>6.8701999999999988</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>45103</v>
       </c>
@@ -37565,8 +38057,12 @@
       <c r="E121">
         <v>9.8892000000000007</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>6.7294999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>45104</v>
       </c>
@@ -37582,8 +38078,12 @@
       <c r="E122">
         <v>9.8194999999999997</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122">
+        <f t="shared" si="1"/>
+        <v>6.3865999999999996</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>45105</v>
       </c>
@@ -37599,8 +38099,12 @@
       <c r="E123">
         <v>9.8142999999999994</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123">
+        <f t="shared" si="1"/>
+        <v>6.1364999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>45106</v>
       </c>
@@ -37616,8 +38120,12 @@
       <c r="E124">
         <v>9.7873999999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124">
+        <f t="shared" si="1"/>
+        <v>6.3262000000000018</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>45107</v>
       </c>
@@ -37633,8 +38141,12 @@
       <c r="E125">
         <v>10.1068</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125">
+        <f t="shared" si="1"/>
+        <v>5.8670000000000009</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>45110</v>
       </c>
@@ -37650,8 +38162,12 @@
       <c r="E126">
         <v>9.8866999999999994</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126">
+        <f t="shared" si="1"/>
+        <v>5.7195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>45112</v>
       </c>
@@ -37667,8 +38183,12 @@
       <c r="E127">
         <v>9.9268000000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127">
+        <f t="shared" si="1"/>
+        <v>6.1317999999999984</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>45113</v>
       </c>
@@ -37684,8 +38204,12 @@
       <c r="E128">
         <v>10.6272</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128">
+        <f t="shared" si="1"/>
+        <v>7.0236000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>45114</v>
       </c>
@@ -37701,8 +38225,12 @@
       <c r="E129">
         <v>10.199199999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129">
+        <f t="shared" si="1"/>
+        <v>6.5242000000000022</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>45117</v>
       </c>
@@ -37718,8 +38246,12 @@
       <c r="E130">
         <v>10.0258</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130">
+        <f t="shared" si="1"/>
+        <v>6.6052</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>45118</v>
       </c>
@@ -37735,8 +38267,12 @@
       <c r="E131">
         <v>10.0144</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131">
+        <f t="shared" ref="F131:F194" si="2">D131-E131</f>
+        <v>6.4886999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>45119</v>
       </c>
@@ -37752,8 +38288,12 @@
       <c r="E132">
         <v>9.6358999999999995</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132">
+        <f t="shared" si="2"/>
+        <v>5.7444000000000006</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>45120</v>
       </c>
@@ -37769,8 +38309,12 @@
       <c r="E133">
         <v>9.7797000000000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133">
+        <f t="shared" si="2"/>
+        <v>5.7872000000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>45121</v>
       </c>
@@ -37786,8 +38330,12 @@
       <c r="E134">
         <v>9.7045999999999992</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134">
+        <f t="shared" si="2"/>
+        <v>5.7233000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>45124</v>
       </c>
@@ -37803,8 +38351,12 @@
       <c r="E135">
         <v>9.7003000000000004</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135">
+        <f t="shared" si="2"/>
+        <v>5.4468999999999994</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>45125</v>
       </c>
@@ -37820,8 +38372,12 @@
       <c r="E136">
         <v>9.8323</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136">
+        <f t="shared" si="2"/>
+        <v>5.0947999999999993</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>45126</v>
       </c>
@@ -37837,8 +38393,12 @@
       <c r="E137">
         <v>10.1045</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137">
+        <f t="shared" si="2"/>
+        <v>5.3698999999999995</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>45127</v>
       </c>
@@ -37854,8 +38414,12 @@
       <c r="E138">
         <v>10.0497</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138">
+        <f t="shared" si="2"/>
+        <v>5.7425999999999995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>45128</v>
       </c>
@@ -37871,8 +38435,12 @@
       <c r="E139">
         <v>9.8455999999999992</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139">
+        <f t="shared" si="2"/>
+        <v>5.8262</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>45131</v>
       </c>
@@ -37888,8 +38456,12 @@
       <c r="E140">
         <v>9.6564999999999994</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140">
+        <f t="shared" si="2"/>
+        <v>5.8449000000000009</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>45132</v>
       </c>
@@ -37905,8 +38477,12 @@
       <c r="E141">
         <v>9.7593999999999994</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141">
+        <f t="shared" si="2"/>
+        <v>5.8521999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>45133</v>
       </c>
@@ -37922,8 +38498,12 @@
       <c r="E142">
         <v>9.3820999999999994</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142">
+        <f t="shared" si="2"/>
+        <v>5.8599000000000014</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>45134</v>
       </c>
@@ -37939,8 +38519,12 @@
       <c r="E143">
         <v>9.7529000000000003</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143">
+        <f t="shared" si="2"/>
+        <v>6.6099999999999994</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>45135</v>
       </c>
@@ -37956,8 +38540,12 @@
       <c r="E144">
         <v>9.6254000000000008</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144">
+        <f t="shared" si="2"/>
+        <v>5.8125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>45138</v>
       </c>
@@ -37973,8 +38561,12 @@
       <c r="E145">
         <v>9.7014999999999993</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145">
+        <f t="shared" si="2"/>
+        <v>5.4963000000000015</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>45139</v>
       </c>
@@ -37990,8 +38582,12 @@
       <c r="E146">
         <v>9.8005999999999993</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146">
+        <f t="shared" si="2"/>
+        <v>5.8048000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>45140</v>
       </c>
@@ -38007,8 +38603,12 @@
       <c r="E147">
         <v>10.738099999999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147">
+        <f t="shared" si="2"/>
+        <v>6.7830000000000013</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>45141</v>
       </c>
@@ -38024,8 +38624,12 @@
       <c r="E148">
         <v>11.258699999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148">
+        <f t="shared" si="2"/>
+        <v>6.1273</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>45142</v>
       </c>
@@ -38041,8 +38645,12 @@
       <c r="E149">
         <v>10.8155</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149">
+        <f t="shared" si="2"/>
+        <v>7.9351999999999983</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>45145</v>
       </c>
@@ -38058,8 +38666,12 @@
       <c r="E150">
         <v>9.9596</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150">
+        <f t="shared" si="2"/>
+        <v>7.5189000000000004</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>45146</v>
       </c>
@@ -38075,8 +38687,12 @@
       <c r="E151">
         <v>10.285</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151">
+        <f t="shared" si="2"/>
+        <v>7.7207000000000008</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>45147</v>
       </c>
@@ -38092,8 +38708,12 @@
       <c r="E152">
         <v>10.9063</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152">
+        <f t="shared" si="2"/>
+        <v>7.1446999999999985</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>45148</v>
       </c>
@@ -38109,8 +38729,12 @@
       <c r="E153">
         <v>10.585599999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153">
+        <f t="shared" si="2"/>
+        <v>7.6937999999999995</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>45149</v>
       </c>
@@ -38126,8 +38750,12 @@
       <c r="E154">
         <v>10.266</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154">
+        <f t="shared" si="2"/>
+        <v>7.2475000000000005</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>45152</v>
       </c>
@@ -38143,8 +38771,12 @@
       <c r="E155">
         <v>9.9383999999999997</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155">
+        <f t="shared" si="2"/>
+        <v>7.0556000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>45153</v>
       </c>
@@ -38160,8 +38792,12 @@
       <c r="E156">
         <v>11.055400000000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156">
+        <f t="shared" si="2"/>
+        <v>7.1774000000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>45154</v>
       </c>
@@ -38177,8 +38813,12 @@
       <c r="E157">
         <v>11.519299999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157">
+        <f t="shared" si="2"/>
+        <v>7.2599</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>45155</v>
       </c>
@@ -38194,8 +38834,12 @@
       <c r="E158">
         <v>11.9931</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158">
+        <f t="shared" si="2"/>
+        <v>7.934800000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>45156</v>
       </c>
@@ -38211,8 +38855,12 @@
       <c r="E159">
         <v>11.694599999999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159">
+        <f t="shared" si="2"/>
+        <v>7.7446999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>45159</v>
       </c>
@@ -38228,8 +38876,12 @@
       <c r="E160">
         <v>11.087400000000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160">
+        <f t="shared" si="2"/>
+        <v>7.8046999999999986</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>45160</v>
       </c>
@@ -38245,8 +38897,12 @@
       <c r="E161">
         <v>11.261799999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <f t="shared" si="2"/>
+        <v>7.5230000000000015</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>45161</v>
       </c>
@@ -38262,8 +38918,12 @@
       <c r="E162">
         <v>10.7265</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <f t="shared" si="2"/>
+        <v>7.497300000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>45162</v>
       </c>
@@ -38279,8 +38939,12 @@
       <c r="E163">
         <v>11.451599999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <f t="shared" si="2"/>
+        <v>7.8394000000000013</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>45163</v>
       </c>
@@ -38296,8 +38960,12 @@
       <c r="E164">
         <v>10.8278</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <f t="shared" si="2"/>
+        <v>7.4089999999999989</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>45166</v>
       </c>
@@ -38313,8 +38981,12 @@
       <c r="E165">
         <v>10.3856</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <f t="shared" si="2"/>
+        <v>6.8250999999999991</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>45167</v>
       </c>
@@ -38330,8 +39002,12 @@
       <c r="E166">
         <v>10.3489</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <f t="shared" si="2"/>
+        <v>6.1650999999999989</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>45168</v>
       </c>
@@ -38347,8 +39023,12 @@
       <c r="E167">
         <v>10.079700000000001</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <f t="shared" si="2"/>
+        <v>5.8979999999999997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>45169</v>
       </c>
@@ -38364,8 +39044,12 @@
       <c r="E168">
         <v>10.1022</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <f t="shared" si="2"/>
+        <v>5.5617000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>45170</v>
       </c>
@@ -38381,8 +39065,12 @@
       <c r="E169">
         <v>9.5335000000000001</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <f t="shared" si="2"/>
+        <v>6.1561000000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>45174</v>
       </c>
@@ -38398,8 +39086,12 @@
       <c r="E170">
         <v>9.4879999999999995</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <f t="shared" si="2"/>
+        <v>6.4481999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>45175</v>
       </c>
@@ -38415,8 +39107,12 @@
       <c r="E171">
         <v>9.4978999999999996</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <f t="shared" si="2"/>
+        <v>7.052999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>45176</v>
       </c>
@@ -38432,8 +39128,12 @@
       <c r="E172">
         <v>9.6911000000000005</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <f t="shared" si="2"/>
+        <v>6.821299999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>45177</v>
       </c>
@@ -38449,8 +39149,12 @@
       <c r="E173">
         <v>9.5353999999999992</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173">
+        <f t="shared" si="2"/>
+        <v>6.4106000000000005</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>45180</v>
       </c>
@@ -38466,8 +39170,12 @@
       <c r="E174">
         <v>9.3450000000000006</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174">
+        <f t="shared" si="2"/>
+        <v>6.1798999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>45181</v>
       </c>
@@ -38483,8 +39191,12 @@
       <c r="E175">
         <v>9.5897000000000006</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175">
+        <f t="shared" si="2"/>
+        <v>6.3343999999999987</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>45182</v>
       </c>
@@ -38500,8 +39212,12 @@
       <c r="E176">
         <v>9.4351000000000003</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F176">
+        <f t="shared" si="2"/>
+        <v>5.7630999999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>45183</v>
       </c>
@@ -38517,8 +39233,12 @@
       <c r="E177">
         <v>9.1536000000000008</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F177">
+        <f t="shared" si="2"/>
+        <v>5.4223999999999997</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>45184</v>
       </c>
@@ -38534,8 +39254,12 @@
       <c r="E178">
         <v>9.5464000000000002</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F178">
+        <f t="shared" si="2"/>
+        <v>6.4330999999999996</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>45187</v>
       </c>
@@ -38551,8 +39275,12 @@
       <c r="E179">
         <v>9.5799000000000003</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F179">
+        <f t="shared" si="2"/>
+        <v>6.2307000000000006</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>45188</v>
       </c>
@@ -38568,8 +39296,12 @@
       <c r="E180">
         <v>9.6719000000000008</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F180">
+        <f t="shared" si="2"/>
+        <v>6.2771999999999988</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>45189</v>
       </c>
@@ -38585,8 +39317,12 @@
       <c r="E181">
         <v>10.226599999999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F181">
+        <f t="shared" si="2"/>
+        <v>6.6846000000000014</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>45190</v>
       </c>
@@ -38602,8 +39338,12 @@
       <c r="E182">
         <v>11.7273</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F182">
+        <f t="shared" si="2"/>
+        <v>7.2921000000000014</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>45191</v>
       </c>
@@ -38619,8 +39359,12 @@
       <c r="E183">
         <v>11.705299999999999</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F183">
+        <f t="shared" si="2"/>
+        <v>7.123400000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>45194</v>
       </c>
@@ -38636,8 +39380,12 @@
       <c r="E184">
         <v>11.394299999999999</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F184">
+        <f t="shared" si="2"/>
+        <v>6.7356999999999996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>45195</v>
       </c>
@@ -38653,8 +39401,12 @@
       <c r="E185">
         <v>13.208500000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F185">
+        <f t="shared" si="2"/>
+        <v>6.2379999999999995</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>45196</v>
       </c>
@@ -38670,8 +39422,12 @@
       <c r="E186">
         <v>12.731400000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F186">
+        <f t="shared" si="2"/>
+        <v>6.3180999999999976</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>45197</v>
       </c>
@@ -38687,8 +39443,12 @@
       <c r="E187">
         <v>12.1366</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F187">
+        <f t="shared" si="2"/>
+        <v>6.5449000000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>45198</v>
       </c>
@@ -38704,8 +39464,12 @@
       <c r="E188">
         <v>12.4115</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F188">
+        <f t="shared" si="2"/>
+        <v>6.5104000000000006</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>45201</v>
       </c>
@@ -38721,8 +39485,12 @@
       <c r="E189">
         <v>12.582800000000001</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F189">
+        <f t="shared" si="2"/>
+        <v>5.8956999999999997</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>45202</v>
       </c>
@@ -38738,8 +39506,12 @@
       <c r="E190">
         <v>14.340400000000001</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F190">
+        <f t="shared" si="2"/>
+        <v>5.9450999999999983</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>45203</v>
       </c>
@@ -38755,8 +39527,12 @@
       <c r="E191">
         <v>13.3476</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F191">
+        <f t="shared" si="2"/>
+        <v>6.2241999999999997</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>45204</v>
       </c>
@@ -38772,8 +39548,12 @@
       <c r="E192">
         <v>13.1287</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F192">
+        <f t="shared" si="2"/>
+        <v>6.5746999999999982</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>45205</v>
       </c>
@@ -38789,8 +39569,12 @@
       <c r="E193">
         <v>12.9666</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F193">
+        <f t="shared" si="2"/>
+        <v>5.7213999999999992</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>45208</v>
       </c>
@@ -38806,8 +39590,12 @@
       <c r="E194">
         <v>12.5039</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194">
+        <f t="shared" si="2"/>
+        <v>5.9893000000000018</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>45209</v>
       </c>
@@ -38823,8 +39611,12 @@
       <c r="E195">
         <v>12.0863</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F195">
+        <f t="shared" ref="F195:F258" si="3">D195-E195</f>
+        <v>5.9779999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>45210</v>
       </c>
@@ -38840,8 +39632,12 @@
       <c r="E196">
         <v>11.7187</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F196">
+        <f t="shared" si="3"/>
+        <v>5.6473999999999993</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>45211</v>
       </c>
@@ -38857,8 +39653,12 @@
       <c r="E197">
         <v>11.443099999999999</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F197">
+        <f t="shared" si="3"/>
+        <v>6.725500000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>45212</v>
       </c>
@@ -38874,8 +39674,12 @@
       <c r="E198">
         <v>12.0465</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198">
+        <f t="shared" si="3"/>
+        <v>8.7097999999999995</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>45215</v>
       </c>
@@ -38891,8 +39695,12 @@
       <c r="E199">
         <v>11.417</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F199">
+        <f t="shared" si="3"/>
+        <v>6.9943000000000008</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>45216</v>
       </c>
@@ -38908,8 +39716,12 @@
       <c r="E200">
         <v>11.3971</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F200">
+        <f t="shared" si="3"/>
+        <v>7.9197000000000006</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>45217</v>
       </c>
@@ -38925,8 +39737,12 @@
       <c r="E201">
         <v>12.965299999999999</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F201">
+        <f t="shared" si="3"/>
+        <v>7.3613</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>45218</v>
       </c>
@@ -38942,8 +39758,12 @@
       <c r="E202">
         <v>13.4938</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202">
+        <f t="shared" si="3"/>
+        <v>9.2771000000000008</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>45219</v>
       </c>
@@ -38959,8 +39779,12 @@
       <c r="E203">
         <v>14.5008</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203">
+        <f t="shared" si="3"/>
+        <v>8.463099999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>45222</v>
       </c>
@@ -38976,8 +39800,12 @@
       <c r="E204">
         <v>14.397600000000001</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F204">
+        <f t="shared" si="3"/>
+        <v>6.6611000000000011</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>45223</v>
       </c>
@@ -38993,8 +39821,12 @@
       <c r="E205">
         <v>13.4041</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F205">
+        <f t="shared" si="3"/>
+        <v>6.6541999999999994</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>45224</v>
       </c>
@@ -39010,8 +39842,12 @@
       <c r="E206">
         <v>14.698</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206">
+        <f t="shared" si="3"/>
+        <v>6.610199999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>45225</v>
       </c>
@@ -39027,8 +39863,12 @@
       <c r="E207">
         <v>15.642799999999999</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F207">
+        <f t="shared" si="3"/>
+        <v>6.0602999999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>45226</v>
       </c>
@@ -39044,8 +39884,12 @@
       <c r="E208">
         <v>15.6615</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F208">
+        <f t="shared" si="3"/>
+        <v>7.0154999999999994</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>45229</v>
       </c>
@@ -39061,8 +39905,12 @@
       <c r="E209">
         <v>14.364800000000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F209">
+        <f t="shared" si="3"/>
+        <v>6.5957999999999988</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>45230</v>
       </c>
@@ -39078,8 +39926,12 @@
       <c r="E210">
         <v>12.959</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F210">
+        <f t="shared" si="3"/>
+        <v>7.0634000000000015</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>45231</v>
       </c>
@@ -39095,8 +39947,12 @@
       <c r="E211">
         <v>12.412000000000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F211">
+        <f t="shared" si="3"/>
+        <v>6.2981999999999996</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>45232</v>
       </c>
@@ -39112,8 +39968,12 @@
       <c r="E212">
         <v>11.452500000000001</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212">
+        <f t="shared" si="3"/>
+        <v>6.5234999999999985</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>45233</v>
       </c>
@@ -39129,8 +39989,12 @@
       <c r="E213">
         <v>11.169600000000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F213">
+        <f t="shared" si="3"/>
+        <v>5.9736999999999991</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>45236</v>
       </c>
@@ -39146,8 +40010,12 @@
       <c r="E214">
         <v>10.5495</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214">
+        <f t="shared" si="3"/>
+        <v>6.2344999999999988</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>45237</v>
       </c>
@@ -39163,8 +40031,12 @@
       <c r="E215">
         <v>10.6332</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F215">
+        <f t="shared" si="3"/>
+        <v>6.0394999999999985</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>45238</v>
       </c>
@@ -39180,8 +40052,12 @@
       <c r="E216">
         <v>10.4254</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F216">
+        <f t="shared" si="3"/>
+        <v>6.1370000000000005</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>45239</v>
       </c>
@@ -39197,8 +40073,12 @@
       <c r="E217">
         <v>11.0587</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F217">
+        <f t="shared" si="3"/>
+        <v>6.1913999999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>45240</v>
       </c>
@@ -39214,8 +40094,12 @@
       <c r="E218">
         <v>10.462400000000001</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F218">
+        <f t="shared" si="3"/>
+        <v>5.9143999999999988</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>45243</v>
       </c>
@@ -39231,8 +40115,12 @@
       <c r="E219">
         <v>10.7913</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F219">
+        <f t="shared" si="3"/>
+        <v>5.5320999999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>45244</v>
       </c>
@@ -39248,8 +40136,12 @@
       <c r="E220">
         <v>11.152799999999999</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F220">
+        <f t="shared" si="3"/>
+        <v>4.4534000000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>45245</v>
       </c>
@@ -39265,8 +40157,12 @@
       <c r="E221">
         <v>10.6076</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F221">
+        <f t="shared" si="3"/>
+        <v>5.3301999999999996</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>45246</v>
       </c>
@@ -39282,8 +40178,12 @@
       <c r="E222">
         <v>10.6328</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F222">
+        <f t="shared" si="3"/>
+        <v>5.1225000000000005</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>45247</v>
       </c>
@@ -39299,8 +40199,12 @@
       <c r="E223">
         <v>10.4308</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F223">
+        <f t="shared" si="3"/>
+        <v>5.2327000000000012</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>45250</v>
       </c>
@@ -39316,8 +40220,12 @@
       <c r="E224">
         <v>9.9793000000000003</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224">
+        <f t="shared" si="3"/>
+        <v>5.0808999999999997</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>45251</v>
       </c>
@@ -39333,8 +40241,12 @@
       <c r="E225">
         <v>9.9905000000000008</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F225">
+        <f t="shared" si="3"/>
+        <v>5.0927999999999987</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>45252</v>
       </c>
@@ -39350,8 +40262,12 @@
       <c r="E226">
         <v>9.5664999999999996</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F226">
+        <f t="shared" si="3"/>
+        <v>5.2030000000000012</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>45254</v>
       </c>
@@ -39367,8 +40283,12 @@
       <c r="E227">
         <v>9.3872</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F227">
+        <f t="shared" si="3"/>
+        <v>5.0515000000000008</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>45257</v>
       </c>
@@ -39384,8 +40304,12 @@
       <c r="E228">
         <v>9.2769999999999992</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F228">
+        <f t="shared" si="3"/>
+        <v>5.2396000000000011</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>45258</v>
       </c>
@@ -39401,8 +40325,12 @@
       <c r="E229">
         <v>9.3465000000000007</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F229">
+        <f t="shared" si="3"/>
+        <v>5.2775999999999996</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>45259</v>
       </c>
@@ -39418,8 +40346,12 @@
       <c r="E230">
         <v>9.7832000000000008</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F230">
+        <f t="shared" si="3"/>
+        <v>5.1542999999999992</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>45260</v>
       </c>
@@ -39435,8 +40367,12 @@
       <c r="E231">
         <v>9.6934000000000005</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F231">
+        <f t="shared" si="3"/>
+        <v>5.4026999999999994</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>45261</v>
       </c>
@@ -39452,8 +40388,12 @@
       <c r="E232">
         <v>10.0128</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F232">
+        <f t="shared" si="3"/>
+        <v>4.7796000000000003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>45264</v>
       </c>
@@ -39469,8 +40409,12 @@
       <c r="E233">
         <v>9.8558000000000003</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F233">
+        <f t="shared" si="3"/>
+        <v>5.2579999999999991</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>45265</v>
       </c>
@@ -39486,8 +40430,12 @@
       <c r="E234">
         <v>10.0154</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F234">
+        <f t="shared" si="3"/>
+        <v>5.0183</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>45266</v>
       </c>
@@ -39503,8 +40451,12 @@
       <c r="E235">
         <v>10.273</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F235">
+        <f t="shared" si="3"/>
+        <v>4.9915000000000003</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>45267</v>
       </c>
@@ -39520,8 +40472,12 @@
       <c r="E236">
         <v>10.5219</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F236">
+        <f t="shared" si="3"/>
+        <v>4.8541999999999987</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>45268</v>
       </c>
@@ -39537,8 +40493,12 @@
       <c r="E237">
         <v>10.0937</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F237">
+        <f t="shared" si="3"/>
+        <v>4.724499999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>45271</v>
       </c>
@@ -39554,8 +40514,12 @@
       <c r="E238">
         <v>9.9242000000000008</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F238">
+        <f t="shared" si="3"/>
+        <v>4.7881999999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>45272</v>
       </c>
@@ -39571,8 +40535,12 @@
       <c r="E239">
         <v>9.5820000000000007</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F239">
+        <f t="shared" si="3"/>
+        <v>4.5612999999999992</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>45273</v>
       </c>
@@ -39588,8 +40556,12 @@
       <c r="E240">
         <v>10.1351</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F240">
+        <f t="shared" si="3"/>
+        <v>3.9190000000000005</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>45274</v>
       </c>
@@ -39605,8 +40577,12 @@
       <c r="E241">
         <v>9.8793000000000006</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F241">
+        <f t="shared" si="3"/>
+        <v>4.5370999999999988</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>45275</v>
       </c>
@@ -39622,8 +40598,12 @@
       <c r="E242">
         <v>10.3002</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F242">
+        <f t="shared" si="3"/>
+        <v>4.5061999999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>45278</v>
       </c>
@@ -39639,8 +40619,12 @@
       <c r="E243">
         <v>10.107699999999999</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F243">
+        <f t="shared" si="3"/>
+        <v>5.0289999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>45279</v>
       </c>
@@ -39656,8 +40640,12 @@
       <c r="E244">
         <v>10.7249</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F244">
+        <f t="shared" si="3"/>
+        <v>4.4282000000000004</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>45280</v>
       </c>
@@ -39673,8 +40661,12 @@
       <c r="E245">
         <v>10.9688</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F245">
+        <f t="shared" si="3"/>
+        <v>5.7213000000000012</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>45281</v>
       </c>
@@ -39690,8 +40682,12 @@
       <c r="E246">
         <v>11.325699999999999</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F246">
+        <f t="shared" si="3"/>
+        <v>5.1701999999999995</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>45282</v>
       </c>
@@ -39707,8 +40703,12 @@
       <c r="E247">
         <v>10.732900000000001</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F247">
+        <f t="shared" si="3"/>
+        <v>5.4798000000000009</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>45286</v>
       </c>
@@ -39724,8 +40724,12 @@
       <c r="E248">
         <v>10.3421</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F248">
+        <f t="shared" si="3"/>
+        <v>4.8966999999999992</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>45287</v>
       </c>
@@ -39741,8 +40745,12 @@
       <c r="E249">
         <v>10.120200000000001</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F249">
+        <f t="shared" si="3"/>
+        <v>4.7606000000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>45288</v>
       </c>
@@ -39758,8 +40766,12 @@
       <c r="E250">
         <v>10.148</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F250">
+        <f t="shared" si="3"/>
+        <v>4.8064999999999998</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>45289</v>
       </c>
@@ -39775,8 +40787,12 @@
       <c r="E251">
         <v>9.8470999999999993</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F251">
+        <f t="shared" si="3"/>
+        <v>5.4598000000000013</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>45293</v>
       </c>
@@ -39792,8 +40808,12 @@
       <c r="E252">
         <v>9.9701000000000004</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F252">
+        <f t="shared" si="3"/>
+        <v>5.2805</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>45294</v>
       </c>
@@ -39809,8 +40829,12 @@
       <c r="E253">
         <v>10.386900000000001</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F253">
+        <f t="shared" si="3"/>
+        <v>5.6921999999999997</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>45295</v>
       </c>
@@ -39826,8 +40850,12 @@
       <c r="E254">
         <v>10.446</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F254">
+        <f t="shared" si="3"/>
+        <v>5.6731999999999996</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>45296</v>
       </c>
@@ -39843,8 +40871,12 @@
       <c r="E255">
         <v>10.2227</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F255">
+        <f t="shared" si="3"/>
+        <v>5.3125999999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>45299</v>
       </c>
@@ -39860,8 +40892,12 @@
       <c r="E256">
         <v>9.7439</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F256">
+        <f t="shared" si="3"/>
+        <v>5.1539999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>45300</v>
       </c>
@@ -39877,8 +40913,12 @@
       <c r="E257">
         <v>9.4815000000000005</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F257">
+        <f t="shared" si="3"/>
+        <v>5.2285000000000004</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>45301</v>
       </c>
@@ -39894,8 +40934,12 @@
       <c r="E258">
         <v>9.8195999999999994</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F258">
+        <f t="shared" si="3"/>
+        <v>4.9166000000000007</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>45302</v>
       </c>
@@ -39911,8 +40955,12 @@
       <c r="E259">
         <v>9.6315000000000008</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F259">
+        <f t="shared" ref="F259:F322" si="4">D259-E259</f>
+        <v>5.0992999999999995</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>45303</v>
       </c>
@@ -39928,8 +40976,12 @@
       <c r="E260">
         <v>9.6346000000000007</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F260">
+        <f t="shared" si="4"/>
+        <v>5.5533999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>45307</v>
       </c>
@@ -39945,8 +40997,12 @@
       <c r="E261">
         <v>9.9638000000000009</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F261">
+        <f t="shared" si="4"/>
+        <v>5.5517999999999983</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>45308</v>
       </c>
@@ -39962,8 +41018,12 @@
       <c r="E262">
         <v>10.1616</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F262">
+        <f t="shared" si="4"/>
+        <v>6.3028000000000013</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>45309</v>
       </c>
@@ -39979,8 +41039,12 @@
       <c r="E263">
         <v>9.9253999999999998</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F263">
+        <f t="shared" si="4"/>
+        <v>6.127600000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>45310</v>
       </c>
@@ -39996,8 +41060,12 @@
       <c r="E264">
         <v>10.0297</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F264">
+        <f t="shared" si="4"/>
+        <v>5.2615999999999996</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>45313</v>
       </c>
@@ -40013,8 +41081,12 @@
       <c r="E265">
         <v>9.9247999999999994</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F265">
+        <f t="shared" si="4"/>
+        <v>5.0318000000000005</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>45314</v>
       </c>
@@ -40030,8 +41102,12 @@
       <c r="E266">
         <v>9.7583000000000002</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F266">
+        <f t="shared" si="4"/>
+        <v>4.6442999999999994</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>45315</v>
       </c>
@@ -40047,8 +41123,12 @@
       <c r="E267">
         <v>9.9132999999999996</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F267">
+        <f t="shared" si="4"/>
+        <v>5.1916000000000011</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>45316</v>
       </c>
@@ -40064,8 +41144,12 @@
       <c r="E268">
         <v>10.148</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F268">
+        <f t="shared" si="4"/>
+        <v>5.2498000000000005</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>45317</v>
       </c>
@@ -40081,8 +41165,12 @@
       <c r="E269">
         <v>10.194599999999999</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F269">
+        <f t="shared" si="4"/>
+        <v>5.0411999999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>45320</v>
       </c>
@@ -40098,8 +41186,12 @@
       <c r="E270">
         <v>10.1526</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F270">
+        <f t="shared" si="4"/>
+        <v>4.8452000000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>45321</v>
       </c>
@@ -40115,8 +41207,12 @@
       <c r="E271">
         <v>10.0326</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F271">
+        <f t="shared" si="4"/>
+        <v>4.9795999999999996</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>45322</v>
       </c>
@@ -40132,8 +41228,12 @@
       <c r="E272">
         <v>10.901199999999999</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F272">
+        <f t="shared" si="4"/>
+        <v>5.0563000000000002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>45323</v>
       </c>
@@ -40149,8 +41249,12 @@
       <c r="E273">
         <v>10.7019</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F273">
+        <f t="shared" si="4"/>
+        <v>4.6390999999999991</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>45324</v>
       </c>
@@ -40166,8 +41270,12 @@
       <c r="E274">
         <v>10.4131</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F274">
+        <f t="shared" si="4"/>
+        <v>5.2285000000000004</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>45327</v>
       </c>
@@ -40183,8 +41291,12 @@
       <c r="E275">
         <v>10.162800000000001</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F275">
+        <f t="shared" si="4"/>
+        <v>4.9579999999999984</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>45328</v>
       </c>
@@ -40200,8 +41312,12 @@
       <c r="E276">
         <v>9.8597999999999999</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F276">
+        <f t="shared" si="4"/>
+        <v>5.0085999999999995</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>45329</v>
       </c>
@@ -40217,8 +41333,12 @@
       <c r="E277">
         <v>10.095499999999999</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F277">
+        <f t="shared" si="4"/>
+        <v>4.3819999999999997</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>45330</v>
       </c>
@@ -40234,8 +41354,12 @@
       <c r="E278">
         <v>9.9891000000000005</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F278">
+        <f t="shared" si="4"/>
+        <v>4.5831999999999997</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>45331</v>
       </c>
@@ -40251,8 +41375,12 @@
       <c r="E279">
         <v>10.0786</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F279">
+        <f t="shared" si="4"/>
+        <v>4.6978000000000009</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>45334</v>
       </c>
@@ -40268,8 +41396,12 @@
       <c r="E280">
         <v>10.1632</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F280">
+        <f t="shared" si="4"/>
+        <v>5.2866</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>45335</v>
       </c>
@@ -40285,8 +41417,12 @@
       <c r="E281">
         <v>10.641999999999999</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F281">
+        <f t="shared" si="4"/>
+        <v>6.1170000000000009</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>45336</v>
       </c>
@@ -40302,8 +41438,12 @@
       <c r="E282">
         <v>10.456300000000001</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F282">
+        <f t="shared" si="4"/>
+        <v>5.4931000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>45337</v>
       </c>
@@ -40319,8 +41459,12 @@
       <c r="E283">
         <v>10.5237</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F283">
+        <f t="shared" si="4"/>
+        <v>4.9504999999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>45338</v>
       </c>
@@ -40336,8 +41480,12 @@
       <c r="E284">
         <v>10.499000000000001</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F284">
+        <f t="shared" si="4"/>
+        <v>5.6751999999999985</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>45342</v>
       </c>
@@ -40353,8 +41501,12 @@
       <c r="E285">
         <v>10.788399999999999</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F285">
+        <f t="shared" si="4"/>
+        <v>5.7049000000000021</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>45343</v>
       </c>
@@ -40370,8 +41522,12 @@
       <c r="E286">
         <v>10.7264</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F286">
+        <f t="shared" si="4"/>
+        <v>5.8712</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>45344</v>
       </c>
@@ -40387,8 +41543,12 @@
       <c r="E287">
         <v>10.781700000000001</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F287">
+        <f t="shared" si="4"/>
+        <v>4.6961999999999993</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>45345</v>
       </c>
@@ -40404,8 +41564,12 @@
       <c r="E288">
         <v>10.6342</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F288">
+        <f t="shared" si="4"/>
+        <v>4.2965999999999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>45348</v>
       </c>
@@ -40421,8 +41585,12 @@
       <c r="E289">
         <v>10.4581</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F289">
+        <f t="shared" si="4"/>
+        <v>4.3245000000000005</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>45349</v>
       </c>
@@ -40438,8 +41606,12 @@
       <c r="E290">
         <v>10.209199999999999</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F290">
+        <f t="shared" si="4"/>
+        <v>4.3292000000000002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>45350</v>
       </c>
@@ -40455,8 +41627,12 @@
       <c r="E291">
         <v>9.9414999999999996</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F291">
+        <f t="shared" si="4"/>
+        <v>5.3778000000000006</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>45351</v>
       </c>
@@ -40472,8 +41648,12 @@
       <c r="E292">
         <v>10.162699999999999</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F292">
+        <f t="shared" si="4"/>
+        <v>4.6016000000000012</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>45352</v>
       </c>
@@ -40489,8 +41669,12 @@
       <c r="E293">
         <v>9.9384999999999994</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F293">
+        <f t="shared" si="4"/>
+        <v>4.7222000000000008</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>45355</v>
       </c>
@@ -40506,8 +41690,12 @@
       <c r="E294">
         <v>10.010400000000001</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F294">
+        <f t="shared" si="4"/>
+        <v>4.764899999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>45356</v>
       </c>
@@ -40523,8 +41711,12 @@
       <c r="E295">
         <v>10.862500000000001</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F295">
+        <f t="shared" si="4"/>
+        <v>4.8388999999999989</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>45357</v>
       </c>
@@ -40540,8 +41732,12 @@
       <c r="E296">
         <v>10.7768</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F296">
+        <f t="shared" si="4"/>
+        <v>5.1762999999999995</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>45358</v>
       </c>
@@ -40557,8 +41753,12 @@
       <c r="E297">
         <v>11.111499999999999</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F297">
+        <f t="shared" si="4"/>
+        <v>4.6485000000000003</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>45359</v>
       </c>
@@ -40574,8 +41774,12 @@
       <c r="E298">
         <v>11.430199999999999</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F298">
+        <f t="shared" si="4"/>
+        <v>4.7202000000000019</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>45362</v>
       </c>
@@ -40591,8 +41795,12 @@
       <c r="E299">
         <v>11.3291</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F299">
+        <f t="shared" si="4"/>
+        <v>4.8958000000000013</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>45363</v>
       </c>
@@ -40608,8 +41816,12 @@
       <c r="E300">
         <v>10.790900000000001</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F300">
+        <f t="shared" si="4"/>
+        <v>4.0747</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>45364</v>
       </c>
@@ -40625,8 +41837,12 @@
       <c r="E301">
         <v>10.5029</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F301">
+        <f t="shared" si="4"/>
+        <v>4.4577999999999989</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>45365</v>
       </c>
@@ -40642,8 +41858,12 @@
       <c r="E302">
         <v>10.4948</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F302">
+        <f t="shared" si="4"/>
+        <v>5.3143000000000011</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>45366</v>
       </c>
@@ -40659,8 +41879,12 @@
       <c r="E303">
         <v>10.8247</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F303">
+        <f t="shared" si="4"/>
+        <v>5.5313000000000017</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>45369</v>
       </c>
@@ -40676,8 +41900,12 @@
       <c r="E304">
         <v>10.7691</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F304">
+        <f t="shared" si="4"/>
+        <v>4.9869000000000003</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>45370</v>
       </c>
@@ -40693,8 +41921,12 @@
       <c r="E305">
         <v>10.5929</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F305">
+        <f t="shared" si="4"/>
+        <v>4.7900999999999989</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>45371</v>
       </c>
@@ -40710,8 +41942,12 @@
       <c r="E306">
         <v>10.593999999999999</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F306">
+        <f t="shared" si="4"/>
+        <v>4.0205000000000002</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>45372</v>
       </c>
@@ -40727,8 +41963,12 @@
       <c r="E307">
         <v>10.2737</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F307">
+        <f t="shared" si="4"/>
+        <v>4.2093000000000007</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>45373</v>
       </c>
@@ -40744,8 +41984,12 @@
       <c r="E308">
         <v>10.070600000000001</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F308">
+        <f t="shared" si="4"/>
+        <v>4.8241999999999994</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>45376</v>
       </c>
@@ -40761,8 +42005,12 @@
       <c r="E309">
         <v>10.1088</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F309">
+        <f t="shared" si="4"/>
+        <v>4.463099999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>45377</v>
       </c>
@@ -40778,8 +42026,12 @@
       <c r="E310">
         <v>10.174200000000001</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F310">
+        <f t="shared" si="4"/>
+        <v>4.4673999999999996</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>45378</v>
       </c>
@@ -40795,8 +42047,12 @@
       <c r="E311">
         <v>9.7544000000000004</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F311">
+        <f t="shared" si="4"/>
+        <v>4.6389999999999993</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>45379</v>
       </c>
@@ -40812,8 +42068,12 @@
       <c r="E312">
         <v>9.6724999999999994</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F312">
+        <f t="shared" si="4"/>
+        <v>5.1117000000000008</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>45383</v>
       </c>
@@ -40829,8 +42089,12 @@
       <c r="E313">
         <v>9.7098999999999993</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F313">
+        <f t="shared" si="4"/>
+        <v>5.1590000000000007</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>45384</v>
       </c>
@@ -40846,8 +42110,12 @@
       <c r="E314">
         <v>10.518000000000001</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F314">
+        <f t="shared" si="4"/>
+        <v>5.2363999999999997</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>45385</v>
       </c>
@@ -40863,8 +42131,12 @@
       <c r="E315">
         <v>10.6873</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F315">
+        <f t="shared" si="4"/>
+        <v>4.9239999999999995</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>45386</v>
       </c>
@@ -40880,8 +42152,12 @@
       <c r="E316">
         <v>11.827299999999999</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F316">
+        <f t="shared" si="4"/>
+        <v>5.5791000000000022</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>45387</v>
       </c>
@@ -40897,8 +42173,12 @@
       <c r="E317">
         <v>11.114000000000001</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F317">
+        <f t="shared" si="4"/>
+        <v>6.400500000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>45390</v>
       </c>
@@ -40914,8 +42194,12 @@
       <c r="E318">
         <v>10.6211</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F318">
+        <f t="shared" si="4"/>
+        <v>5.6757000000000009</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>45391</v>
       </c>
@@ -40931,8 +42215,12 @@
       <c r="E319">
         <v>10.8567</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F319">
+        <f t="shared" si="4"/>
+        <v>5.2761999999999993</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>45392</v>
       </c>
@@ -40948,8 +42236,12 @@
       <c r="E320">
         <v>10.981199999999999</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F320">
+        <f t="shared" si="4"/>
+        <v>6.2776000000000014</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>45393</v>
       </c>
@@ -40965,8 +42257,12 @@
       <c r="E321">
         <v>10.8475</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F321">
+        <f t="shared" si="4"/>
+        <v>5.5556999999999981</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>45394</v>
       </c>
@@ -40982,8 +42278,12 @@
       <c r="E322">
         <v>11.9772</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F322">
+        <f t="shared" si="4"/>
+        <v>6.6705000000000005</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>45397</v>
       </c>
@@ -40999,8 +42299,12 @@
       <c r="E323">
         <v>13.033099999999999</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F323">
+        <f t="shared" ref="F323:F386" si="5">D323-E323</f>
+        <v>6.9481000000000019</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>45398</v>
       </c>
@@ -41016,8 +42320,12 @@
       <c r="E324">
         <v>12.960800000000001</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F324">
+        <f t="shared" si="5"/>
+        <v>6.4350000000000005</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>45399</v>
       </c>
@@ -41033,8 +42341,12 @@
       <c r="E325">
         <v>12.997199999999999</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F325">
+        <f t="shared" si="5"/>
+        <v>6.3733000000000004</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>45400</v>
       </c>
@@ -41050,8 +42362,12 @@
       <c r="E326">
         <v>13.151999999999999</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F326">
+        <f t="shared" si="5"/>
+        <v>5.9969000000000019</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>45401</v>
       </c>
@@ -41067,8 +42383,12 @@
       <c r="E327">
         <v>13.6572</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F327">
+        <f t="shared" si="5"/>
+        <v>6.2128000000000014</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>45404</v>
       </c>
@@ -41084,8 +42404,12 @@
       <c r="E328">
         <v>12.3467</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F328">
+        <f t="shared" si="5"/>
+        <v>5.3565999999999985</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>45405</v>
       </c>
@@ -41101,8 +42425,12 @@
       <c r="E329">
         <v>11.7371</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F329">
+        <f t="shared" si="5"/>
+        <v>4.847900000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>45406</v>
       </c>
@@ -41118,8 +42446,12 @@
       <c r="E330">
         <v>11.0943</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F330">
+        <f t="shared" si="5"/>
+        <v>6.4494000000000007</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>45407</v>
       </c>
@@ -41135,8 +42467,12 @@
       <c r="E331">
         <v>13.176500000000001</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F331">
+        <f t="shared" si="5"/>
+        <v>2.5279999999999987</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>45408</v>
       </c>
@@ -41152,8 +42488,12 @@
       <c r="E332">
         <v>10.9613</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F332">
+        <f t="shared" si="5"/>
+        <v>5.571299999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>45411</v>
       </c>
@@ -41169,8 +42509,12 @@
       <c r="E333">
         <v>10.6736</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F333">
+        <f t="shared" si="5"/>
+        <v>5.2789000000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>45412</v>
       </c>
@@ -41186,8 +42530,12 @@
       <c r="E334">
         <v>11.5343</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F334">
+        <f t="shared" si="5"/>
+        <v>5.4763999999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>45413</v>
       </c>
@@ -41203,8 +42551,12 @@
       <c r="E335">
         <v>11.986499999999999</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F335">
+        <f t="shared" si="5"/>
+        <v>4.8385999999999996</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>45414</v>
       </c>
@@ -41220,8 +42572,12 @@
       <c r="E336">
         <v>11.285600000000001</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F336">
+        <f t="shared" si="5"/>
+        <v>5.0284999999999993</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>45415</v>
       </c>
@@ -41237,8 +42593,12 @@
       <c r="E337">
         <v>10.7898</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F337">
+        <f t="shared" si="5"/>
+        <v>4.5242000000000004</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>45418</v>
       </c>
@@ -41254,8 +42614,12 @@
       <c r="E338">
         <v>10.432700000000001</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F338">
+        <f t="shared" si="5"/>
+        <v>4.6300999999999988</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>45419</v>
       </c>
@@ -41271,8 +42635,12 @@
       <c r="E339">
         <v>10.389900000000001</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F339">
+        <f t="shared" si="5"/>
+        <v>4.4047000000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>45420</v>
       </c>
@@ -41288,8 +42656,12 @@
       <c r="E340">
         <v>10.008800000000001</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F340">
+        <f t="shared" si="5"/>
+        <v>4.8694999999999986</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>45421</v>
       </c>
@@ -41305,8 +42677,12 @@
       <c r="E341">
         <v>10.035399999999999</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F341">
+        <f t="shared" si="5"/>
+        <v>4.5345000000000013</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>45422</v>
       </c>
@@ -41322,8 +42698,12 @@
       <c r="E342">
         <v>9.7592999999999996</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F342">
+        <f t="shared" si="5"/>
+        <v>4.9920000000000009</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>45425</v>
       </c>
@@ -41339,8 +42719,12 @@
       <c r="E343">
         <v>10.188499999999999</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F343">
+        <f t="shared" si="5"/>
+        <v>5.0593000000000004</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>45426</v>
       </c>
@@ -41356,8 +42740,12 @@
       <c r="E344">
         <v>10.255800000000001</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F344">
+        <f t="shared" si="5"/>
+        <v>4.8582999999999998</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>45427</v>
       </c>
@@ -41373,8 +42761,12 @@
       <c r="E345">
         <v>9.5812000000000008</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F345">
+        <f t="shared" si="5"/>
+        <v>4.8651</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>45428</v>
       </c>
@@ -41390,8 +42782,12 @@
       <c r="E346">
         <v>9.5449000000000002</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F346">
+        <f t="shared" si="5"/>
+        <v>4.9662000000000006</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>45429</v>
       </c>
@@ -41407,8 +42803,12 @@
       <c r="E347">
         <v>9.2623999999999995</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F347">
+        <f t="shared" si="5"/>
+        <v>5.1817000000000011</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>45432</v>
       </c>
@@ -41424,8 +42824,12 @@
       <c r="E348">
         <v>9.0345999999999993</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F348">
+        <f t="shared" si="5"/>
+        <v>5.3931000000000004</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>45433</v>
       </c>
@@ -41441,8 +42845,12 @@
       <c r="E349">
         <v>8.8285</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F349">
+        <f t="shared" si="5"/>
+        <v>5.4643999999999995</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>45434</v>
       </c>
@@ -41458,8 +42866,12 @@
       <c r="E350">
         <v>8.9085999999999999</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F350">
+        <f t="shared" si="5"/>
+        <v>6.0679999999999996</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>45435</v>
       </c>
@@ -41475,8 +42887,12 @@
       <c r="E351">
         <v>8.9930000000000003</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F351">
+        <f t="shared" si="5"/>
+        <v>6.3310999999999993</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>45436</v>
       </c>
@@ -41492,8 +42908,12 @@
       <c r="E352">
         <v>8.4123999999999999</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F352">
+        <f t="shared" si="5"/>
+        <v>6.4666999999999994</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>45440</v>
       </c>
@@ -41509,8 +42929,12 @@
       <c r="E353">
         <v>8.2525999999999993</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F353">
+        <f t="shared" si="5"/>
+        <v>6.968</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>45441</v>
       </c>
@@ -41526,8 +42950,12 @@
       <c r="E354">
         <v>8.8493999999999993</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F354">
+        <f t="shared" si="5"/>
+        <v>7.5620000000000012</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>45442</v>
       </c>
@@ -41543,8 +42971,12 @@
       <c r="E355">
         <v>9.3805999999999994</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F355">
+        <f t="shared" si="5"/>
+        <v>7.2693999999999992</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>45443</v>
       </c>
@@ -41560,8 +42992,12 @@
       <c r="E356">
         <v>8.9301999999999992</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F356">
+        <f t="shared" si="5"/>
+        <v>6.3730000000000011</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>45446</v>
       </c>
@@ -41577,8 +43013,12 @@
       <c r="E357">
         <v>9.2727000000000004</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F357">
+        <f t="shared" si="5"/>
+        <v>5.988999999999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>45447</v>
       </c>
@@ -41594,8 +43034,12 @@
       <c r="E358">
         <v>9.4674999999999994</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F358">
+        <f t="shared" si="5"/>
+        <v>5.8920000000000012</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>45448</v>
       </c>
@@ -41611,8 +43055,12 @@
       <c r="E359">
         <v>9.3384999999999998</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F359">
+        <f t="shared" si="5"/>
+        <v>5.6630000000000003</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>45449</v>
       </c>
@@ -41628,8 +43076,12 @@
       <c r="E360">
         <v>9.5471000000000004</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F360">
+        <f t="shared" si="5"/>
+        <v>5.423</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>45450</v>
       </c>
@@ -41645,8 +43097,12 @@
       <c r="E361">
         <v>9.4558</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F361">
+        <f t="shared" si="5"/>
+        <v>5.3078000000000003</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>45453</v>
       </c>
@@ -41662,8 +43118,12 @@
       <c r="E362">
         <v>9.3828999999999994</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F362">
+        <f t="shared" si="5"/>
+        <v>5.3582000000000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>45454</v>
       </c>
@@ -41679,8 +43139,12 @@
       <c r="E363">
         <v>9.6059999999999999</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F363">
+        <f t="shared" si="5"/>
+        <v>5.2507999999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>45455</v>
       </c>
@@ -41696,8 +43160,12 @@
       <c r="E364">
         <v>9.5342000000000002</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F364">
+        <f t="shared" si="5"/>
+        <v>4.7736000000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>45456</v>
       </c>
@@ -41713,8 +43181,12 @@
       <c r="E365">
         <v>9.4402000000000008</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F365">
+        <f t="shared" si="5"/>
+        <v>4.6427999999999994</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>45457</v>
       </c>
@@ -41730,8 +43202,12 @@
       <c r="E366">
         <v>9.4078999999999997</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F366">
+        <f t="shared" si="5"/>
+        <v>5.822000000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>45460</v>
       </c>
@@ -41747,8 +43223,12 @@
       <c r="E367">
         <v>9.6631</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F367">
+        <f t="shared" si="5"/>
+        <v>5.0083000000000002</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>45461</v>
       </c>
@@ -41764,8 +43244,12 @@
       <c r="E368">
         <v>9.5495000000000001</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F368">
+        <f t="shared" si="5"/>
+        <v>4.9395000000000007</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>45463</v>
       </c>
@@ -41781,8 +43265,12 @@
       <c r="E369">
         <v>9.7963000000000005</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F369">
+        <f t="shared" si="5"/>
+        <v>5.2606999999999999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>45464</v>
       </c>
@@ -41798,8 +43286,12 @@
       <c r="E370">
         <v>9.6872000000000007</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F370">
+        <f t="shared" si="5"/>
+        <v>5.6091999999999995</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>45467</v>
       </c>
@@ -41815,8 +43307,12 @@
       <c r="E371">
         <v>9.6121999999999996</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F371">
+        <f t="shared" si="5"/>
+        <v>5.4086999999999996</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>45468</v>
       </c>
@@ -41832,8 +43328,12 @@
       <c r="E372">
         <v>9.3619000000000003</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F372">
+        <f t="shared" si="5"/>
+        <v>5.3836999999999993</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>45469</v>
       </c>
@@ -41849,8 +43349,12 @@
       <c r="E373">
         <v>9.0671999999999997</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F373">
+        <f t="shared" si="5"/>
+        <v>5.670300000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>45470</v>
       </c>
@@ -41866,8 +43370,12 @@
       <c r="E374">
         <v>9.1004000000000005</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F374">
+        <f t="shared" si="5"/>
+        <v>5.4069000000000003</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>45471</v>
       </c>
@@ -41883,8 +43391,12 @@
       <c r="E375">
         <v>9.3602000000000007</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F375">
+        <f t="shared" si="5"/>
+        <v>5.4650999999999996</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>45474</v>
       </c>
@@ -41900,8 +43412,12 @@
       <c r="E376">
         <v>8.6617999999999995</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F376">
+        <f t="shared" si="5"/>
+        <v>5.7421000000000006</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>45475</v>
       </c>
@@ -41917,8 +43433,12 @@
       <c r="E377">
         <v>8.5206</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F377">
+        <f t="shared" si="5"/>
+        <v>5.9206000000000003</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>45476</v>
       </c>
@@ -41934,8 +43454,12 @@
       <c r="E378">
         <v>8.8836999999999993</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F378">
+        <f t="shared" si="5"/>
+        <v>5.5631000000000004</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>45478</v>
       </c>
@@ -41951,8 +43475,12 @@
       <c r="E379">
         <v>8.9323999999999995</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F379">
+        <f t="shared" si="5"/>
+        <v>5.5754999999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>45481</v>
       </c>
@@ -41968,8 +43496,12 @@
       <c r="E380">
         <v>8.8979999999999997</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F380">
+        <f t="shared" si="5"/>
+        <v>5.0362000000000009</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>45482</v>
       </c>
@@ -41985,8 +43517,12 @@
       <c r="E381">
         <v>8.8963999999999999</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F381">
+        <f t="shared" si="5"/>
+        <v>5.2303999999999995</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>45483</v>
       </c>
@@ -42002,8 +43538,12 @@
       <c r="E382">
         <v>9.1030999999999995</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F382">
+        <f t="shared" si="5"/>
+        <v>5.4309000000000012</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>45484</v>
       </c>
@@ -42019,8 +43559,12 @@
       <c r="E383">
         <v>9.5092999999999996</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F383">
+        <f t="shared" si="5"/>
+        <v>5.0788000000000011</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>45485</v>
       </c>
@@ -42036,8 +43580,12 @@
       <c r="E384">
         <v>9.2230000000000008</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F384">
+        <f t="shared" si="5"/>
+        <v>5.1585999999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>45488</v>
       </c>
@@ -42053,8 +43601,12 @@
       <c r="E385">
         <v>9.5995000000000008</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F385">
+        <f t="shared" si="5"/>
+        <v>4.8788</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>45489</v>
       </c>
@@ -42070,8 +43622,12 @@
       <c r="E386">
         <v>9.5980000000000008</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F386">
+        <f t="shared" si="5"/>
+        <v>4.8628</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>45490</v>
       </c>
@@ -42087,8 +43643,12 @@
       <c r="E387">
         <v>10.4046</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F387">
+        <f t="shared" ref="F387:F450" si="6">D387-E387</f>
+        <v>5.4083000000000006</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>45491</v>
       </c>
@@ -42104,8 +43664,12 @@
       <c r="E388">
         <v>10.959300000000001</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F388">
+        <f t="shared" si="6"/>
+        <v>6.1333000000000002</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>45492</v>
       </c>
@@ -42121,8 +43685,12 @@
       <c r="E389">
         <v>10.9452</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F389">
+        <f t="shared" si="6"/>
+        <v>7.0366999999999997</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>45495</v>
       </c>
@@ -42138,8 +43706,12 @@
       <c r="E390">
         <v>10.5143</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F390">
+        <f t="shared" si="6"/>
+        <v>5.4884000000000004</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>45496</v>
       </c>
@@ -42155,8 +43727,12 @@
       <c r="E391">
         <v>10.5418</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F391">
+        <f t="shared" si="6"/>
+        <v>5.4877999999999982</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>45497</v>
       </c>
@@ -42172,8 +43748,12 @@
       <c r="E392">
         <v>12.9438</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F392">
+        <f t="shared" si="6"/>
+        <v>5.6467999999999989</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>45498</v>
       </c>
@@ -42189,8 +43769,12 @@
       <c r="E393">
         <v>13.2819</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F393">
+        <f t="shared" si="6"/>
+        <v>6.0779999999999994</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>45499</v>
       </c>
@@ -42206,8 +43790,12 @@
       <c r="E394">
         <v>11.913399999999999</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F394">
+        <f t="shared" si="6"/>
+        <v>5.9230000000000018</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>45502</v>
       </c>
@@ -42223,8 +43811,12 @@
       <c r="E395">
         <v>12.062900000000001</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F395">
+        <f t="shared" si="6"/>
+        <v>5.4398</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>45503</v>
       </c>
@@ -42240,8 +43832,12 @@
       <c r="E396">
         <v>11.7818</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F396">
+        <f t="shared" si="6"/>
+        <v>7.4563999999999986</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>45504</v>
       </c>
@@ -42257,8 +43853,12 @@
       <c r="E397">
         <v>11.940300000000001</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F397">
+        <f t="shared" si="6"/>
+        <v>5.3685000000000009</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>45505</v>
       </c>
@@ -42274,8 +43874,12 @@
       <c r="E398">
         <v>13.0441</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F398">
+        <f t="shared" si="6"/>
+        <v>6.8128999999999991</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>45506</v>
       </c>
@@ -42291,8 +43895,12 @@
       <c r="E399">
         <v>15.261100000000001</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F399">
+        <f t="shared" si="6"/>
+        <v>8.6628999999999987</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>45509</v>
       </c>
@@ -42308,8 +43916,12 @@
       <c r="E400">
         <v>22.971599999999999</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F400">
+        <f t="shared" si="6"/>
+        <v>10.213200000000004</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>45510</v>
       </c>
@@ -42325,8 +43937,12 @@
       <c r="E401">
         <v>16.8809</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F401">
+        <f t="shared" si="6"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>45511</v>
       </c>
@@ -42342,8 +43958,12 @@
       <c r="E402">
         <v>18.032900000000001</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F402">
+        <f t="shared" si="6"/>
+        <v>8.8054999999999986</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>45512</v>
       </c>
@@ -42359,8 +43979,12 @@
       <c r="E403">
         <v>15.263199999999999</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F403">
+        <f t="shared" si="6"/>
+        <v>8.5265000000000004</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>45513</v>
       </c>
@@ -42376,8 +44000,12 @@
       <c r="E404">
         <v>13.1982</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F404">
+        <f t="shared" si="6"/>
+        <v>8.4770000000000003</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>45516</v>
       </c>
@@ -42393,8 +44021,12 @@
       <c r="E405">
         <v>12.7302</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F405">
+        <f t="shared" si="6"/>
+        <v>8.7106999999999992</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>45517</v>
       </c>
@@ -42410,8 +44042,12 @@
       <c r="E406">
         <v>11.463800000000001</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F406">
+        <f t="shared" si="6"/>
+        <v>8.0068000000000001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>45518</v>
       </c>
@@ -42427,8 +44063,12 @@
       <c r="E407">
         <v>10.677300000000001</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F407">
+        <f t="shared" si="6"/>
+        <v>6.9772999999999978</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>45519</v>
       </c>
@@ -42444,8 +44084,12 @@
       <c r="E408">
         <v>10.5275</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F408">
+        <f t="shared" si="6"/>
+        <v>6.4654999999999987</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>45520</v>
       </c>
@@ -42461,8 +44105,12 @@
       <c r="E409">
         <v>10.476599999999999</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F409">
+        <f t="shared" si="6"/>
+        <v>6.3880999999999997</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>45523</v>
       </c>
@@ -42478,8 +44126,12 @@
       <c r="E410">
         <v>9.9742999999999995</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F410">
+        <f t="shared" si="6"/>
+        <v>6.4720000000000013</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>45524</v>
       </c>
@@ -42495,8 +44147,12 @@
       <c r="E411">
         <v>10.6228</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F411">
+        <f t="shared" si="6"/>
+        <v>6.8559000000000001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>45525</v>
       </c>
@@ -42512,8 +44168,12 @@
       <c r="E412">
         <v>10.6187</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F412">
+        <f t="shared" si="6"/>
+        <v>7.2234999999999978</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>45526</v>
       </c>
@@ -42529,8 +44189,12 @@
       <c r="E413">
         <v>11.061400000000001</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F413">
+        <f t="shared" si="6"/>
+        <v>7.7874999999999996</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>45527</v>
       </c>
@@ -42546,8 +44210,12 @@
       <c r="E414">
         <v>10.453200000000001</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F414">
+        <f t="shared" si="6"/>
+        <v>7.2761999999999976</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>45530</v>
       </c>
@@ -42563,8 +44231,12 @@
       <c r="E415">
         <v>10.2187</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F415">
+        <f t="shared" si="6"/>
+        <v>7.3931999999999984</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>45531</v>
       </c>
@@ -42580,8 +44252,12 @@
       <c r="E416">
         <v>9.9481000000000002</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F416">
+        <f t="shared" si="6"/>
+        <v>7.1859000000000002</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>45532</v>
       </c>
@@ -42597,8 +44273,12 @@
       <c r="E417">
         <v>10.370799999999999</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F417">
+        <f t="shared" si="6"/>
+        <v>8.5776000000000003</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>45533</v>
       </c>
@@ -42614,8 +44294,12 @@
       <c r="E418">
         <v>10.0152</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F418">
+        <f t="shared" si="6"/>
+        <v>7.5792999999999999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>45534</v>
       </c>
@@ -42631,8 +44315,12 @@
       <c r="E419">
         <v>9.4769000000000005</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F419">
+        <f t="shared" si="6"/>
+        <v>7.8504000000000005</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>45538</v>
       </c>
@@ -42648,8 +44336,12 @@
       <c r="E420">
         <v>11.107799999999999</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F420">
+        <f t="shared" si="6"/>
+        <v>9.3342000000000009</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>45539</v>
       </c>
@@ -42665,8 +44357,12 @@
       <c r="E421">
         <v>11.2065</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F421">
+        <f t="shared" si="6"/>
+        <v>10.091900000000001</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>45540</v>
       </c>
@@ -42682,8 +44378,12 @@
       <c r="E422">
         <v>11.416499999999999</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F422">
+        <f t="shared" si="6"/>
+        <v>9.0694000000000017</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>45541</v>
       </c>
@@ -42699,8 +44399,12 @@
       <c r="E423">
         <v>13.0982</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F423">
+        <f t="shared" si="6"/>
+        <v>9.4951999999999988</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>45544</v>
       </c>
@@ -42716,8 +44420,12 @@
       <c r="E424">
         <v>11.7722</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F424">
+        <f t="shared" si="6"/>
+        <v>8.3789999999999996</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>45545</v>
       </c>
@@ -42733,8 +44441,12 @@
       <c r="E425">
         <v>11.4436</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F425">
+        <f t="shared" si="6"/>
+        <v>8.5824999999999996</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>45546</v>
       </c>
@@ -42750,8 +44462,12 @@
       <c r="E426">
         <v>10.948600000000001</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F426">
+        <f t="shared" si="6"/>
+        <v>7.8879000000000001</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>45547</v>
       </c>
@@ -42767,8 +44483,12 @@
       <c r="E427">
         <v>10.564399999999999</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F427">
+        <f t="shared" si="6"/>
+        <v>7.900500000000001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>45548</v>
       </c>
@@ -42784,8 +44504,12 @@
       <c r="E428">
         <v>10.5031</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F428">
+        <f t="shared" si="6"/>
+        <v>7.6298999999999992</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>45551</v>
       </c>
@@ -42801,8 +44525,12 @@
       <c r="E429">
         <v>10.6373</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F429">
+        <f t="shared" si="6"/>
+        <v>7.4218000000000011</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>45552</v>
       </c>
@@ -42818,8 +44546,12 @@
       <c r="E430">
         <v>11.071</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F430">
+        <f t="shared" si="6"/>
+        <v>7.2352000000000007</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>45553</v>
       </c>
@@ -42835,8 +44567,12 @@
       <c r="E431">
         <v>11.645099999999999</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F431">
+        <f t="shared" si="6"/>
+        <v>6.7027000000000001</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>45554</v>
       </c>
@@ -42852,8 +44588,12 @@
       <c r="E432">
         <v>10.7799</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F432">
+        <f t="shared" si="6"/>
+        <v>6.3192000000000004</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>45555</v>
       </c>
@@ -42869,8 +44609,12 @@
       <c r="E433">
         <v>10.722300000000001</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F433">
+        <f t="shared" si="6"/>
+        <v>6.8843999999999994</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>45558</v>
       </c>
@@ -42886,8 +44630,12 @@
       <c r="E434">
         <v>10.106400000000001</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F434">
+        <f t="shared" si="6"/>
+        <v>6.9073999999999991</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>45559</v>
       </c>
@@ -42903,8 +44651,12 @@
       <c r="E435">
         <v>9.7268000000000008</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F435">
+        <f t="shared" si="6"/>
+        <v>7.0202999999999989</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>45560</v>
       </c>
@@ -42920,8 +44672,12 @@
       <c r="E436">
         <v>9.8806999999999992</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F436">
+        <f t="shared" si="6"/>
+        <v>6.8342000000000009</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>45561</v>
       </c>
@@ -42937,8 +44693,12 @@
       <c r="E437">
         <v>10.132999999999999</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F437">
+        <f t="shared" si="6"/>
+        <v>6.6067</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>45562</v>
       </c>
@@ -42954,8 +44714,12 @@
       <c r="E438">
         <v>10.340199999999999</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F438">
+        <f t="shared" si="6"/>
+        <v>7.7073</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>45565</v>
       </c>
@@ -42971,8 +44735,12 @@
       <c r="E439">
         <v>9.7718000000000007</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F439">
+        <f t="shared" si="6"/>
+        <v>7.818699999999998</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>45566</v>
       </c>
@@ -42988,8 +44756,12 @@
       <c r="E440">
         <v>10.841100000000001</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F440">
+        <f t="shared" si="6"/>
+        <v>8.9059999999999988</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>45567</v>
       </c>
@@ -43005,8 +44777,12 @@
       <c r="E441">
         <v>11.0334</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F441">
+        <f t="shared" si="6"/>
+        <v>8.6829000000000001</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>45568</v>
       </c>
@@ -43022,8 +44798,12 @@
       <c r="E442">
         <v>11.751300000000001</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F442">
+        <f t="shared" si="6"/>
+        <v>9.1463999999999999</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>45569</v>
       </c>
@@ -43039,8 +44819,12 @@
       <c r="E443">
         <v>11.315799999999999</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F443">
+        <f t="shared" si="6"/>
+        <v>8.8834000000000017</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>45572</v>
       </c>
@@ -43056,8 +44840,12 @@
       <c r="E444">
         <v>13.1439</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F444">
+        <f t="shared" si="6"/>
+        <v>9.2602999999999991</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>45573</v>
       </c>
@@ -43073,8 +44861,12 @@
       <c r="E445">
         <v>12.5299</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F445">
+        <f t="shared" si="6"/>
+        <v>9.242300000000002</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>45574</v>
       </c>
@@ -43090,8 +44882,12 @@
       <c r="E446">
         <v>12.418699999999999</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F446">
+        <f t="shared" si="6"/>
+        <v>8.7016000000000009</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>45575</v>
       </c>
@@ -43107,8 +44903,12 @@
       <c r="E447">
         <v>12.570499999999999</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F447">
+        <f t="shared" si="6"/>
+        <v>8.4298000000000002</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>45576</v>
       </c>
@@ -43124,8 +44924,12 @@
       <c r="E448">
         <v>12.6219</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F448">
+        <f t="shared" si="6"/>
+        <v>8.2663000000000011</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>45579</v>
       </c>
@@ -43141,8 +44945,12 @@
       <c r="E449">
         <v>12.302899999999999</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F449">
+        <f t="shared" si="6"/>
+        <v>7.457200000000002</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>45580</v>
       </c>
@@ -43158,8 +44966,12 @@
       <c r="E450">
         <v>12.444699999999999</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F450">
+        <f t="shared" si="6"/>
+        <v>8.0326000000000004</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>45581</v>
       </c>
@@ -43175,8 +44987,12 @@
       <c r="E451">
         <v>12.2723</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F451">
+        <f t="shared" ref="F451:F514" si="7">D451-E451</f>
+        <v>7.5248000000000008</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>45582</v>
       </c>
@@ -43192,8 +45008,12 @@
       <c r="E452">
         <v>11.8947</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F452">
+        <f t="shared" si="7"/>
+        <v>7.4086999999999996</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>45583</v>
       </c>
@@ -43209,8 +45029,12 @@
       <c r="E453">
         <v>11.574199999999999</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F453">
+        <f t="shared" si="7"/>
+        <v>7.3102</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>45586</v>
       </c>
@@ -43226,8 +45050,12 @@
       <c r="E454">
         <v>11.662100000000001</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F454">
+        <f t="shared" si="7"/>
+        <v>7.1824999999999992</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>45587</v>
       </c>
@@ -43243,8 +45071,12 @@
       <c r="E455">
         <v>11.751799999999999</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F455">
+        <f t="shared" si="7"/>
+        <v>7.184899999999999</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>45588</v>
       </c>
@@ -43260,8 +45092,12 @@
       <c r="E456">
         <v>12.4048</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F456">
+        <f t="shared" si="7"/>
+        <v>7.5775999999999986</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>45589</v>
       </c>
@@ -43277,8 +45113,12 @@
       <c r="E457">
         <v>12.1134</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F457">
+        <f t="shared" si="7"/>
+        <v>7.9225000000000012</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>45590</v>
       </c>
@@ -43294,8 +45134,12 @@
       <c r="E458">
         <v>12.2296</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F458">
+        <f t="shared" si="7"/>
+        <v>9.1637000000000004</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>45593</v>
       </c>
@@ -43311,8 +45155,12 @@
       <c r="E459">
         <v>12.228300000000001</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F459">
+        <f t="shared" si="7"/>
+        <v>8.1289999999999978</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>45594</v>
       </c>
@@ -43328,8 +45176,12 @@
       <c r="E460">
         <v>12.657</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F460">
+        <f t="shared" si="7"/>
+        <v>7.407</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>45595</v>
       </c>
@@ -43345,8 +45197,12 @@
       <c r="E461">
         <v>13.298500000000001</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F461">
+        <f t="shared" si="7"/>
+        <v>7.3368000000000002</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>45596</v>
       </c>
@@ -43362,8 +45218,12 @@
       <c r="E462">
         <v>15.1259</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F462">
+        <f t="shared" si="7"/>
+        <v>7.5494000000000003</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>45597</v>
       </c>
@@ -43379,8 +45239,12 @@
       <c r="E463">
         <v>13.888</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F463">
+        <f t="shared" si="7"/>
+        <v>8.6739000000000015</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>45600</v>
       </c>
@@ -43396,8 +45260,12 @@
       <c r="E464">
         <v>13.720700000000001</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F464">
+        <f t="shared" si="7"/>
+        <v>8.1140000000000008</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>45601</v>
       </c>
@@ -43413,8 +45281,12 @@
       <c r="E465">
         <v>12.8576</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F465">
+        <f t="shared" si="7"/>
+        <v>7.8100000000000005</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>45602</v>
       </c>
@@ -43430,8 +45302,12 @@
       <c r="E466">
         <v>11.598599999999999</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F466">
+        <f t="shared" si="7"/>
+        <v>5.7818000000000023</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>45603</v>
       </c>
@@ -43447,8 +45323,12 @@
       <c r="E467">
         <v>11.166499999999999</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F467">
+        <f t="shared" si="7"/>
+        <v>5.6135000000000019</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>45604</v>
       </c>
@@ -43464,8 +45344,12 @@
       <c r="E468">
         <v>10.8424</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F468">
+        <f t="shared" si="7"/>
+        <v>5.9933999999999994</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>45607</v>
       </c>
@@ -43481,8 +45365,12 @@
       <c r="E469">
         <v>10.8028</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F469">
+        <f t="shared" si="7"/>
+        <v>5.5623000000000022</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>45608</v>
       </c>
@@ -43498,8 +45386,12 @@
       <c r="E470">
         <v>10.669499999999999</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F470">
+        <f t="shared" si="7"/>
+        <v>5.5607000000000006</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>45609</v>
       </c>
@@ -43515,8 +45407,12 @@
       <c r="E471">
         <v>10.202400000000001</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F471">
+        <f t="shared" si="7"/>
+        <v>5.6835999999999984</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>45610</v>
       </c>
@@ -43532,8 +45428,12 @@
       <c r="E472">
         <v>9.7881</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F472">
+        <f t="shared" si="7"/>
+        <v>6.1869999999999994</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>45611</v>
       </c>
@@ -43549,8 +45449,12 @@
       <c r="E473">
         <v>10.972099999999999</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F473">
+        <f t="shared" si="7"/>
+        <v>6.9782999999999991</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>45614</v>
       </c>
@@ -43566,8 +45470,12 @@
       <c r="E474">
         <v>10.5586</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F474">
+        <f t="shared" si="7"/>
+        <v>6.6102000000000007</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>45615</v>
       </c>
@@ -43583,8 +45491,12 @@
       <c r="E475">
         <v>11.026300000000001</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F475">
+        <f t="shared" si="7"/>
+        <v>6.9393999999999973</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>45616</v>
       </c>
@@ -43600,8 +45512,12 @@
       <c r="E476">
         <v>11.3279</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F476">
+        <f t="shared" si="7"/>
+        <v>7.5733999999999995</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>45617</v>
       </c>
@@ -43617,8 +45533,12 @@
       <c r="E477">
         <v>11.0434</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F477">
+        <f t="shared" si="7"/>
+        <v>7.2248000000000001</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>45618</v>
       </c>
@@ -43634,8 +45554,12 @@
       <c r="E478">
         <v>10.099</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F478">
+        <f t="shared" si="7"/>
+        <v>7.5657999999999994</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>45621</v>
       </c>
@@ -43651,8 +45575,12 @@
       <c r="E479">
         <v>9.7301000000000002</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F479">
+        <f t="shared" si="7"/>
+        <v>6.7900999999999989</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>45622</v>
       </c>
@@ -43668,8 +45596,12 @@
       <c r="E480">
         <v>9.5062999999999995</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F480">
+        <f t="shared" si="7"/>
+        <v>6.5826999999999991</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>45623</v>
       </c>
@@ -43685,8 +45617,12 @@
       <c r="E481">
         <v>9.0715000000000003</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F481">
+        <f t="shared" si="7"/>
+        <v>7.3010999999999981</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>45625</v>
       </c>
@@ -43702,8 +45638,12 @@
       <c r="E482">
         <v>9.0965000000000007</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F482">
+        <f t="shared" si="7"/>
+        <v>6.7708999999999993</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>45628</v>
       </c>
@@ -43719,8 +45659,12 @@
       <c r="E483">
         <v>8.8694000000000006</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F483">
+        <f t="shared" si="7"/>
+        <v>6.7646999999999995</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>45629</v>
       </c>
@@ -43736,8 +45680,12 @@
       <c r="E484">
         <v>8.8245000000000005</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F484">
+        <f t="shared" si="7"/>
+        <v>6.7797999999999998</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>45630</v>
       </c>
@@ -43753,8 +45701,12 @@
       <c r="E485">
         <v>9.1224000000000007</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F485">
+        <f t="shared" si="7"/>
+        <v>6.3529</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>45631</v>
       </c>
@@ -43770,8 +45722,12 @@
       <c r="E486">
         <v>9.0086999999999993</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F486">
+        <f t="shared" si="7"/>
+        <v>6.7881</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>45632</v>
       </c>
@@ -43787,8 +45743,12 @@
       <c r="E487">
         <v>9.2634000000000007</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F487">
+        <f t="shared" si="7"/>
+        <v>5.8359999999999985</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>45635</v>
       </c>
@@ -43804,8 +45764,12 @@
       <c r="E488">
         <v>9.2324000000000002</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F488">
+        <f t="shared" si="7"/>
+        <v>6.8503999999999987</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>45636</v>
       </c>
@@ -43821,8 +45785,12 @@
       <c r="E489">
         <v>9.4908000000000001</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F489">
+        <f t="shared" si="7"/>
+        <v>6.5499000000000009</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>45637</v>
       </c>
@@ -43838,8 +45806,12 @@
       <c r="E490">
         <v>9.1484000000000005</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F490">
+        <f t="shared" si="7"/>
+        <v>6.6188000000000002</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>45638</v>
       </c>
@@ -43855,8 +45827,12 @@
       <c r="E491">
         <v>9.3986000000000001</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F491">
+        <f t="shared" si="7"/>
+        <v>6.6923000000000012</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>45639</v>
       </c>
@@ -43872,8 +45848,12 @@
       <c r="E492">
         <v>9.4823000000000004</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F492">
+        <f t="shared" si="7"/>
+        <v>6.7548000000000012</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>45642</v>
       </c>
@@ -43889,8 +45869,12 @@
       <c r="E493">
         <v>9.8642000000000003</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F493">
+        <f t="shared" si="7"/>
+        <v>6.4620999999999995</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>45643</v>
       </c>
@@ -43906,8 +45890,12 @@
       <c r="E494">
         <v>10.202199999999999</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F494">
+        <f t="shared" si="7"/>
+        <v>7.1708000000000016</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>45644</v>
       </c>
@@ -43923,8 +45911,12 @@
       <c r="E495">
         <v>13.5238</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F495">
+        <f t="shared" si="7"/>
+        <v>11.387700000000001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>45645</v>
       </c>
@@ -43940,8 +45932,12 @@
       <c r="E496">
         <v>13.3072</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F496">
+        <f t="shared" si="7"/>
+        <v>10.167900000000001</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>45646</v>
       </c>
@@ -43957,8 +45953,12 @@
       <c r="E497">
         <v>11.4542</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F497">
+        <f t="shared" si="7"/>
+        <v>8.4856000000000016</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>45649</v>
       </c>
@@ -43974,8 +45974,12 @@
       <c r="E498">
         <v>10.171099999999999</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F498">
+        <f t="shared" si="7"/>
+        <v>8.4352000000000018</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>45650</v>
       </c>
@@ -43991,8 +45995,12 @@
       <c r="E499">
         <v>9.4054000000000002</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F499">
+        <f t="shared" si="7"/>
+        <v>6.8518000000000008</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>45652</v>
       </c>
@@ -44008,8 +46016,12 @@
       <c r="E500">
         <v>9.4611999999999998</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F500">
+        <f t="shared" si="7"/>
+        <v>7.4299000000000017</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>45653</v>
       </c>
@@ -44025,8 +46037,12 @@
       <c r="E501">
         <v>9.8584999999999994</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F501">
+        <f t="shared" si="7"/>
+        <v>8.0327000000000019</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>45656</v>
       </c>
@@ -44042,8 +46058,12 @@
       <c r="E502">
         <v>10.789</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F502">
+        <f t="shared" si="7"/>
+        <v>7.6596999999999991</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>45657</v>
       </c>
@@ -44059,8 +46079,12 @@
       <c r="E503">
         <v>10.8813</v>
       </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F503">
+        <f t="shared" si="7"/>
+        <v>7.6479999999999997</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>45659</v>
       </c>
@@ -44076,8 +46100,12 @@
       <c r="E504">
         <v>11.576499999999999</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F504">
+        <f t="shared" si="7"/>
+        <v>7.2012999999999998</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>45660</v>
       </c>
@@ -44093,8 +46121,12 @@
       <c r="E505">
         <v>10.284800000000001</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F505">
+        <f t="shared" si="7"/>
+        <v>7.459699999999998</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>45663</v>
       </c>
@@ -44110,8 +46142,12 @@
       <c r="E506">
         <v>10.544600000000001</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F506">
+        <f t="shared" si="7"/>
+        <v>7.1060999999999996</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>45664</v>
       </c>
@@ -44127,8 +46163,12 @@
       <c r="E507">
         <v>11.7356</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F507">
+        <f t="shared" si="7"/>
+        <v>7.331999999999999</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>45665</v>
       </c>
@@ -44144,8 +46184,12 @@
       <c r="E508">
         <v>11.5526</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F508">
+        <f t="shared" si="7"/>
+        <v>7.5143000000000004</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>45667</v>
       </c>
@@ -44161,8 +46205,12 @@
       <c r="E509">
         <v>12.6364</v>
       </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F509">
+        <f t="shared" si="7"/>
+        <v>7.8889000000000014</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>45670</v>
       </c>
@@ -44178,8 +46226,12 @@
       <c r="E510">
         <v>12.5169</v>
       </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F510">
+        <f t="shared" si="7"/>
+        <v>7.0360000000000014</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>45671</v>
       </c>
@@ -44195,8 +46247,12 @@
       <c r="E511">
         <v>12.8714</v>
       </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F511">
+        <f t="shared" si="7"/>
+        <v>6.3215000000000021</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>45672</v>
       </c>
@@ -44212,8 +46268,12 @@
       <c r="E512">
         <v>10.791399999999999</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F512">
+        <f t="shared" si="7"/>
+        <v>6.5936000000000021</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>45673</v>
       </c>
@@ -44229,8 +46289,12 @@
       <c r="E513">
         <v>10.619899999999999</v>
       </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F513">
+        <f t="shared" si="7"/>
+        <v>6.9274000000000004</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>45674</v>
       </c>
@@ -44246,8 +46310,12 @@
       <c r="E514">
         <v>11.0282</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F514">
+        <f t="shared" si="7"/>
+        <v>6.7324000000000002</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>45678</v>
       </c>
@@ -44263,8 +46331,12 @@
       <c r="E515">
         <v>10.2592</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F515">
+        <f t="shared" ref="F515:F570" si="8">D515-E515</f>
+        <v>5.7304999999999993</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>45679</v>
       </c>
@@ -44280,8 +46352,12 @@
       <c r="E516">
         <v>10.1653</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F516">
+        <f t="shared" si="8"/>
+        <v>5.9581</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>45680</v>
       </c>
@@ -44297,8 +46373,12 @@
       <c r="E517">
         <v>9.9748999999999999</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F517">
+        <f t="shared" si="8"/>
+        <v>6.2872000000000003</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>45681</v>
       </c>
@@ -44314,8 +46394,12 @@
       <c r="E518">
         <v>9.7756000000000007</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F518">
+        <f t="shared" si="8"/>
+        <v>6.6692999999999998</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>45684</v>
       </c>
@@ -44331,8 +46415,12 @@
       <c r="E519">
         <v>11.1907</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F519">
+        <f t="shared" si="8"/>
+        <v>7.149799999999999</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>45685</v>
       </c>
@@ -44348,8 +46436,12 @@
       <c r="E520">
         <v>10.394500000000001</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F520">
+        <f t="shared" si="8"/>
+        <v>7.1722000000000001</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>45686</v>
       </c>
@@ -44365,8 +46457,12 @@
       <c r="E521">
         <v>8.8762000000000008</v>
       </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F521">
+        <f t="shared" si="8"/>
+        <v>8.7945999999999991</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>45687</v>
       </c>
@@ -44382,8 +46478,12 @@
       <c r="E522">
         <v>10.3994</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F522">
+        <f t="shared" si="8"/>
+        <v>6.7219000000000015</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>45688</v>
       </c>
@@ -44399,8 +46499,12 @@
       <c r="E523">
         <v>10.6929</v>
       </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F523">
+        <f t="shared" si="8"/>
+        <v>7.3229999999999986</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>45691</v>
       </c>
@@ -44416,8 +46520,12 @@
       <c r="E524">
         <v>11.649699999999999</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F524">
+        <f t="shared" si="8"/>
+        <v>7.6247000000000007</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>45692</v>
       </c>
@@ -44433,8 +46541,12 @@
       <c r="E525">
         <v>10.2568</v>
       </c>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F525">
+        <f t="shared" si="8"/>
+        <v>8.2187000000000001</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>45693</v>
       </c>
@@ -44450,8 +46562,12 @@
       <c r="E526">
         <v>9.9535</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F526">
+        <f t="shared" si="8"/>
+        <v>7.4644999999999992</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>45694</v>
       </c>
@@ -44467,8 +46583,12 @@
       <c r="E527">
         <v>9.5352999999999994</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F527">
+        <f t="shared" si="8"/>
+        <v>7.8170000000000002</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>45695</v>
       </c>
@@ -44484,8 +46604,12 @@
       <c r="E528">
         <v>9.9210999999999991</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F528">
+        <f t="shared" si="8"/>
+        <v>8.3161000000000023</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>45698</v>
       </c>
@@ -44501,8 +46625,12 @@
       <c r="E529">
         <v>9.3657000000000004</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F529">
+        <f t="shared" si="8"/>
+        <v>7.7790999999999997</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>45699</v>
       </c>
@@ -44518,8 +46646,12 @@
       <c r="E530">
         <v>9.4831000000000003</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F530">
+        <f t="shared" si="8"/>
+        <v>7.6911999999999985</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>45700</v>
       </c>
@@ -44535,8 +46667,12 @@
       <c r="E531">
         <v>9.6437000000000008</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F531">
+        <f t="shared" si="8"/>
+        <v>7.8084000000000007</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>45701</v>
       </c>
@@ -44552,8 +46688,12 @@
       <c r="E532">
         <v>9.4217999999999993</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F532">
+        <f t="shared" si="8"/>
+        <v>7.5680999999999994</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>45702</v>
       </c>
@@ -44569,8 +46709,12 @@
       <c r="E533">
         <v>9.1776</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F533">
+        <f t="shared" si="8"/>
+        <v>7.6318999999999999</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>45706</v>
       </c>
@@ -44586,8 +46730,12 @@
       <c r="E534">
         <v>8.9789999999999992</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F534">
+        <f t="shared" si="8"/>
+        <v>7.3527000000000022</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>45707</v>
       </c>
@@ -44603,8 +46751,12 @@
       <c r="E535">
         <v>8.9191000000000003</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F535">
+        <f t="shared" si="8"/>
+        <v>7.532</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>45708</v>
       </c>
@@ -44620,8 +46772,12 @@
       <c r="E536">
         <v>8.8617000000000008</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F536">
+        <f t="shared" si="8"/>
+        <v>7.8653999999999993</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>45709</v>
       </c>
@@ -44637,8 +46793,12 @@
       <c r="E537">
         <v>10.044</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F537">
+        <f t="shared" si="8"/>
+        <v>9.3094999999999999</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>45712</v>
       </c>
@@ -44654,8 +46814,12 @@
       <c r="E538">
         <v>10.453799999999999</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F538">
+        <f t="shared" si="8"/>
+        <v>9.1265000000000018</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>45713</v>
       </c>
@@ -44671,8 +46835,12 @@
       <c r="E539">
         <v>10.9513</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F539">
+        <f t="shared" si="8"/>
+        <v>8.8626000000000005</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>45714</v>
       </c>
@@ -44688,8 +46856,12 @@
       <c r="E540">
         <v>11.282</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F540">
+        <f t="shared" si="8"/>
+        <v>8.5743000000000009</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>45715</v>
       </c>
@@ -44705,8 +46877,12 @@
       <c r="E541">
         <v>13.388400000000001</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F541">
+        <f t="shared" si="8"/>
+        <v>8.1882999999999981</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>45716</v>
       </c>
@@ -44722,8 +46898,12 @@
       <c r="E542">
         <v>11.1846</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F542">
+        <f t="shared" si="8"/>
+        <v>9.2114000000000011</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>45719</v>
       </c>
@@ -44739,8 +46919,12 @@
       <c r="E543">
         <v>13.864699999999999</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F543">
+        <f t="shared" si="8"/>
+        <v>8.1940000000000026</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>45720</v>
       </c>
@@ -44756,8 +46940,12 @@
       <c r="E544">
         <v>14.8089</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F544">
+        <f t="shared" si="8"/>
+        <v>8.139899999999999</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>45721</v>
       </c>
@@ -44773,8 +46961,12 @@
       <c r="E545">
         <v>13.462300000000001</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F545">
+        <f t="shared" si="8"/>
+        <v>8.7695999999999987</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>45722</v>
       </c>
@@ -44790,8 +46982,12 @@
       <c r="E546">
         <v>16.940200000000001</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F546">
+        <f t="shared" si="8"/>
+        <v>7.7605000000000004</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>45723</v>
       </c>
@@ -44807,8 +47003,12 @@
       <c r="E547">
         <v>14.664899999999999</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F547">
+        <f t="shared" si="8"/>
+        <v>9.3669000000000011</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>45726</v>
       </c>
@@ -44824,8 +47024,12 @@
       <c r="E548">
         <v>18.402899999999999</v>
       </c>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F548">
+        <f t="shared" si="8"/>
+        <v>8.2417000000000016</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>45727</v>
       </c>
@@ -44841,8 +47045,12 @@
       <c r="E549">
         <v>19.215299999999999</v>
       </c>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F549">
+        <f t="shared" si="8"/>
+        <v>6.8176000000000023</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>45728</v>
       </c>
@@ -44858,8 +47066,12 @@
       <c r="E550">
         <v>16.688800000000001</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F550">
+        <f t="shared" si="8"/>
+        <v>7.8160999999999987</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>45729</v>
       </c>
@@ -44875,8 +47087,12 @@
       <c r="E551">
         <v>18.508900000000001</v>
       </c>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F551">
+        <f t="shared" si="8"/>
+        <v>6.1137999999999977</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>45730</v>
       </c>
@@ -44892,8 +47108,12 @@
       <c r="E552">
         <v>14.9575</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F552">
+        <f t="shared" si="8"/>
+        <v>7.9266000000000005</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>45733</v>
       </c>
@@ -44909,8 +47129,12 @@
       <c r="E553">
         <v>13.7958</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F553">
+        <f t="shared" si="8"/>
+        <v>7.5059000000000005</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>45734</v>
       </c>
@@ -44926,8 +47150,12 @@
       <c r="E554">
         <v>15.331799999999999</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F554">
+        <f t="shared" si="8"/>
+        <v>6.7645</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>45735</v>
       </c>
@@ -44943,8 +47171,12 @@
       <c r="E555">
         <v>13.8201</v>
       </c>
-    </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F555">
+        <f t="shared" si="8"/>
+        <v>6.9300999999999995</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>45736</v>
       </c>
@@ -44960,8 +47192,12 @@
       <c r="E556">
         <v>13.6812</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F556">
+        <f t="shared" si="8"/>
+        <v>6.9082000000000008</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>45737</v>
       </c>
@@ -44977,8 +47213,12 @@
       <c r="E557">
         <v>13.507</v>
       </c>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F557">
+        <f t="shared" si="8"/>
+        <v>6.9169999999999998</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>45740</v>
       </c>
@@ -44994,8 +47234,12 @@
       <c r="E558">
         <v>11.925700000000001</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F558">
+        <f t="shared" si="8"/>
+        <v>6.7758999999999983</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>45741</v>
       </c>
@@ -45011,8 +47255,12 @@
       <c r="E559">
         <v>11.7014</v>
       </c>
-    </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F559">
+        <f t="shared" si="8"/>
+        <v>6.7061999999999991</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>45742</v>
       </c>
@@ -45028,8 +47276,12 @@
       <c r="E560">
         <v>12.6975</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F560">
+        <f t="shared" si="8"/>
+        <v>7.0114000000000001</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>45743</v>
       </c>
@@ -45045,8 +47297,12 @@
       <c r="E561">
         <v>12.9131</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F561">
+        <f t="shared" si="8"/>
+        <v>7.1281999999999996</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>45744</v>
       </c>
@@ -45062,8 +47318,12 @@
       <c r="E562">
         <v>15.017200000000001</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F562">
+        <f t="shared" si="8"/>
+        <v>7.6216999999999988</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>45747</v>
       </c>
@@ -45079,8 +47339,12 @@
       <c r="E563">
         <v>13.8589</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F563">
+        <f t="shared" si="8"/>
+        <v>9.2125000000000004</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>45748</v>
       </c>
@@ -45096,8 +47360,12 @@
       <c r="E564">
         <v>14.2531</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F564">
+        <f t="shared" si="8"/>
+        <v>8.4162999999999997</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>45749</v>
       </c>
@@ -45113,8 +47381,12 @@
       <c r="E565">
         <v>14.1218</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F565">
+        <f t="shared" si="8"/>
+        <v>8.4479000000000006</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>45750</v>
       </c>
@@ -45130,8 +47402,12 @@
       <c r="E566">
         <v>21.813500000000001</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F566">
+        <f t="shared" si="8"/>
+        <v>7.4920999999999971</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>45751</v>
       </c>
@@ -45147,8 +47423,12 @@
       <c r="E567">
         <v>31.7196</v>
       </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F567">
+        <f t="shared" si="8"/>
+        <v>11.208100000000002</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>45754</v>
       </c>
@@ -45164,8 +47444,12 @@
       <c r="E568">
         <v>35.895600000000002</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F568">
+        <f t="shared" si="8"/>
+        <v>6.594699999999996</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>45755</v>
       </c>
@@ -45181,8 +47465,12 @@
       <c r="E569">
         <v>37.279299999999999</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F569">
+        <f t="shared" si="8"/>
+        <v>10.106299999999997</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>45756</v>
       </c>
@@ -45198,110 +47486,13 @@
       <c r="E570">
         <v>18.0364</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A571" s="1">
-        <v>45757</v>
-      </c>
-      <c r="B571">
-        <v>524.58000000000004</v>
-      </c>
-      <c r="C571">
-        <v>35.459699999999998</v>
-      </c>
-      <c r="D571">
-        <v>39.7973</v>
-      </c>
-      <c r="E571">
-        <v>29.9192</v>
-      </c>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A572" s="1">
-        <v>45758</v>
-      </c>
-      <c r="B572">
-        <v>533.94000000000005</v>
-      </c>
-      <c r="C572">
-        <v>32.880000000000003</v>
-      </c>
-      <c r="D572">
-        <v>37.809899999999999</v>
-      </c>
-      <c r="E572">
-        <v>26.691199999999998</v>
-      </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A573" s="1">
-        <v>45761</v>
-      </c>
-      <c r="B573">
-        <v>539.12</v>
-      </c>
-      <c r="C573">
-        <v>26.178000000000001</v>
-      </c>
-      <c r="D573">
-        <v>31.264900000000001</v>
-      </c>
-      <c r="E573">
-        <v>19.816299999999998</v>
-      </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A574" s="1">
-        <v>45762</v>
-      </c>
-      <c r="B574">
-        <v>537.61</v>
-      </c>
-      <c r="C574">
-        <v>25.196899999999999</v>
-      </c>
-      <c r="D574">
-        <v>29.779299999999999</v>
-      </c>
-      <c r="E574">
-        <v>19.8932</v>
-      </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A575" s="1">
-        <v>45763</v>
-      </c>
-      <c r="B575">
-        <v>525.66</v>
-      </c>
-      <c r="C575">
-        <v>28.379200000000001</v>
-      </c>
-      <c r="D575">
-        <v>32.080300000000001</v>
-      </c>
-      <c r="E575">
-        <v>23.836200000000002</v>
-      </c>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A576" s="1">
-        <v>45764</v>
-      </c>
-      <c r="B576">
-        <v>526.41</v>
-      </c>
-      <c r="C576">
-        <v>26.085699999999999</v>
-      </c>
-      <c r="D576">
-        <v>29.669699999999999</v>
-      </c>
-      <c r="E576">
-        <v>22.416799999999999</v>
+      <c r="F570">
+        <f t="shared" si="8"/>
+        <v>15.851100000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>